--- a/참고자료/매입매출2-테이블명세양식(2019-10-24).xlsx
+++ b/참고자료/매입매출2-테이블명세양식(2019-10-24).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="매입매출장" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,26 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Column</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -108,31 +88,104 @@
     <t>매출단가</t>
   </si>
   <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:매입, 2:매출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공급가액= 수량*단가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(구분==1, VAT별도,VAT포함)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(50)</t>
+    <t>상품코드</t>
+  </si>
+  <si>
+    <t>매입단가</t>
+  </si>
+  <si>
+    <t>대표자명</t>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>거래처코드</t>
+  </si>
+  <si>
+    <t>SEQ</t>
+  </si>
+  <si>
+    <t>매입매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_iolist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_pname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_dname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_dceo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_inout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_qty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(25)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -140,13 +193,45 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상품코드</t>
-  </si>
-  <si>
-    <t>매입단가</t>
-  </si>
-  <si>
-    <t>VARCHAR(6)</t>
+    <t>not null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급가액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이름</t>
+  </si>
+  <si>
+    <t>과세여부</t>
+  </si>
+  <si>
+    <t>상품정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -166,16 +251,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_product</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>p_vat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1==과세, 2==면세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처이름</t>
   </si>
   <si>
     <t>거래처정보</t>
@@ -186,33 +290,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>거래처명</t>
-  </si>
-  <si>
-    <t>대표자명</t>
-  </si>
-  <si>
-    <t>전화번호</t>
-  </si>
-  <si>
-    <t>주소</t>
-  </si>
-  <si>
-    <t>담당자</t>
-  </si>
-  <si>
-    <t>거래처코드</t>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(125)</t>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(125)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -236,118 +318,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d_man</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEQ</t>
-  </si>
-  <si>
-    <t>매입매출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_iolist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>io_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>io_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>io_pname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>io_dname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>io_dceo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>io_inout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>io_qty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>io_price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>io_total</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(25)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Primary Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공급가액</t>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2(125)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1007,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1668,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1694,23 +1669,23 @@
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -1719,22 +1694,22 @@
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="23" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -1745,19 +1720,19 @@
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -1768,19 +1743,19 @@
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B5" s="23"/>
       <c r="C5" s="24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -1791,19 +1766,19 @@
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -1814,19 +1789,19 @@
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B7" s="9"/>
       <c r="C7" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1837,19 +1812,19 @@
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B8" s="9"/>
       <c r="C8" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1860,16 +1835,16 @@
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B9" s="9"/>
       <c r="C9" s="13" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="14"/>
@@ -1881,16 +1856,16 @@
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="13" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -1964,7 +1939,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2624,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -2650,25 +2625,23 @@
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -2677,44 +2650,42 @@
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
-      <c r="L3" s="27">
-        <v>43755</v>
-      </c>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="25"/>
@@ -2726,16 +2697,16 @@
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="23"/>
       <c r="C5" s="24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="25"/>
@@ -2746,16 +2717,26 @@
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="24"/>
+      <c r="C6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
+      <c r="L6" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B7" s="9"/>
@@ -2768,9 +2749,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B8" s="9"/>
@@ -2796,9 +2775,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="9"/>
@@ -2811,9 +2788,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="9"/>
@@ -2847,19 +2822,11 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2887,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3548,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -3574,23 +3541,23 @@
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3599,47 +3566,45 @@
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="23" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
-      <c r="L3" s="27">
-        <v>43755</v>
-      </c>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -3650,16 +3615,16 @@
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="23"/>
       <c r="C5" s="24" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>59</v>
+        <v>76</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="25"/>
@@ -3671,16 +3636,16 @@
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -3691,26 +3656,16 @@
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B7" s="9"/>
-      <c r="C7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="7"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B8" s="9"/>
@@ -3736,9 +3691,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="9"/>
@@ -3751,9 +3704,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="9"/>
@@ -3787,19 +3738,11 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">

--- a/참고자료/매입매출2-테이블명세양식(2019-10-24).xlsx
+++ b/참고자료/매입매출2-테이블명세양식(2019-10-24).xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="매입매출장" sheetId="1" r:id="rId1"/>
     <sheet name="상품정보" sheetId="2" r:id="rId2"/>
     <sheet name="거래처정보" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="1023">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -324,6 +325,2835 @@
   <si>
     <t>nvarchar2(125)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0017</t>
+  </si>
+  <si>
+    <t>롯데대성가스보일러(신제천롯데)</t>
+  </si>
+  <si>
+    <t>김현철</t>
+  </si>
+  <si>
+    <t>010-6666-3420</t>
+  </si>
+  <si>
+    <t>D0020</t>
+  </si>
+  <si>
+    <t>영진에너지(광주동구롯데)</t>
+  </si>
+  <si>
+    <t>김선석</t>
+  </si>
+  <si>
+    <t>010-3551-9932</t>
+  </si>
+  <si>
+    <t>D0023</t>
+  </si>
+  <si>
+    <t>(주)미래씨앤에이치</t>
+  </si>
+  <si>
+    <t>김영현</t>
+  </si>
+  <si>
+    <t>010-9783-3267</t>
+  </si>
+  <si>
+    <t>D0033</t>
+  </si>
+  <si>
+    <t>진우ENG</t>
+  </si>
+  <si>
+    <t>이진우</t>
+  </si>
+  <si>
+    <t>010-6754-9658</t>
+  </si>
+  <si>
+    <t>D0054</t>
+  </si>
+  <si>
+    <t>청인(동구롯데)</t>
+  </si>
+  <si>
+    <t>한규식</t>
+  </si>
+  <si>
+    <t>010-6898-4289</t>
+  </si>
+  <si>
+    <t>D0067</t>
+  </si>
+  <si>
+    <t>롯데가스보일러경산대리점</t>
+  </si>
+  <si>
+    <t>강용진</t>
+  </si>
+  <si>
+    <t>010-4465-4481</t>
+  </si>
+  <si>
+    <t>D0071</t>
+  </si>
+  <si>
+    <t>경보플랜트설비</t>
+  </si>
+  <si>
+    <t>김익중</t>
+  </si>
+  <si>
+    <t>010-6086-2869</t>
+  </si>
+  <si>
+    <t>D0091</t>
+  </si>
+  <si>
+    <t>서원상사</t>
+  </si>
+  <si>
+    <t>김종석</t>
+  </si>
+  <si>
+    <t>010-6638-3506</t>
+  </si>
+  <si>
+    <t>D0097</t>
+  </si>
+  <si>
+    <t>울산남구롯데</t>
+  </si>
+  <si>
+    <t>이복남</t>
+  </si>
+  <si>
+    <t>010-3024-8234</t>
+  </si>
+  <si>
+    <t>D0099</t>
+  </si>
+  <si>
+    <t>싱싱냉동</t>
+  </si>
+  <si>
+    <t>박강희</t>
+  </si>
+  <si>
+    <t>010-5757-5031</t>
+  </si>
+  <si>
+    <t>D0101</t>
+  </si>
+  <si>
+    <t>롯데보일러원주지점(원주남부)</t>
+  </si>
+  <si>
+    <t>원동빈</t>
+  </si>
+  <si>
+    <t>010-6599-5866</t>
+  </si>
+  <si>
+    <t>D0111</t>
+  </si>
+  <si>
+    <t>관악롯데냉열기기(관악)</t>
+  </si>
+  <si>
+    <t>한승환</t>
+  </si>
+  <si>
+    <t>010-7769-9926</t>
+  </si>
+  <si>
+    <t>D0112</t>
+  </si>
+  <si>
+    <t>우리냉동</t>
+  </si>
+  <si>
+    <t>유익</t>
+  </si>
+  <si>
+    <t>010-9793-6065</t>
+  </si>
+  <si>
+    <t>D0113</t>
+  </si>
+  <si>
+    <t>보일러상사(정읍롯데)</t>
+  </si>
+  <si>
+    <t>여현식</t>
+  </si>
+  <si>
+    <t>010-1791-2332</t>
+  </si>
+  <si>
+    <t>D0119</t>
+  </si>
+  <si>
+    <t>미래냉동</t>
+  </si>
+  <si>
+    <t>오세영</t>
+  </si>
+  <si>
+    <t>010-7769-7713</t>
+  </si>
+  <si>
+    <t>D0120</t>
+  </si>
+  <si>
+    <t>(주)동양엔지니어링(광주남구롯데)</t>
+  </si>
+  <si>
+    <t>김기국</t>
+  </si>
+  <si>
+    <t>010-5553-2502</t>
+  </si>
+  <si>
+    <t>D0134</t>
+  </si>
+  <si>
+    <t>롯데가스보일러(김천롯데)</t>
+  </si>
+  <si>
+    <t>문성식</t>
+  </si>
+  <si>
+    <t>010-9808-9752</t>
+  </si>
+  <si>
+    <t>D0138</t>
+  </si>
+  <si>
+    <t>모악ENG(남전주롯데)</t>
+  </si>
+  <si>
+    <t>서인호</t>
+  </si>
+  <si>
+    <t>010-6467-9676</t>
+  </si>
+  <si>
+    <t>D0143</t>
+  </si>
+  <si>
+    <t>협신상사</t>
+  </si>
+  <si>
+    <t>백경목</t>
+  </si>
+  <si>
+    <t>010-5195-1902</t>
+  </si>
+  <si>
+    <t>D0162</t>
+  </si>
+  <si>
+    <t>(주)한에너지시스템</t>
+  </si>
+  <si>
+    <t>장사윤</t>
+  </si>
+  <si>
+    <t>010-7114-9995</t>
+  </si>
+  <si>
+    <t>D0173</t>
+  </si>
+  <si>
+    <t>가인상사</t>
+  </si>
+  <si>
+    <t>정수임</t>
+  </si>
+  <si>
+    <t>010-1001-2231</t>
+  </si>
+  <si>
+    <t>D0175</t>
+  </si>
+  <si>
+    <t>코리아냉.난방(군산남부롯데)</t>
+  </si>
+  <si>
+    <t>이종현</t>
+  </si>
+  <si>
+    <t>010-6979-6709</t>
+  </si>
+  <si>
+    <t>D0177</t>
+  </si>
+  <si>
+    <t>롯데가스보일러 신북구점</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>010-8961-6064</t>
+  </si>
+  <si>
+    <t>D0179</t>
+  </si>
+  <si>
+    <t>대한종합건재</t>
+  </si>
+  <si>
+    <t>안향자</t>
+  </si>
+  <si>
+    <t>010-9857-4025</t>
+  </si>
+  <si>
+    <t>D0188</t>
+  </si>
+  <si>
+    <t>동구미롯데</t>
+  </si>
+  <si>
+    <t>김한수</t>
+  </si>
+  <si>
+    <t>010-4866-8927</t>
+  </si>
+  <si>
+    <t>D0189</t>
+  </si>
+  <si>
+    <t>경북냉열</t>
+  </si>
+  <si>
+    <t>박준영</t>
+  </si>
+  <si>
+    <t>010-4217-8985</t>
+  </si>
+  <si>
+    <t>D0198</t>
+  </si>
+  <si>
+    <t>자판기월드</t>
+  </si>
+  <si>
+    <t>황성욱</t>
+  </si>
+  <si>
+    <t>010-3184-5253</t>
+  </si>
+  <si>
+    <t>D0199</t>
+  </si>
+  <si>
+    <t>명성냉열기상사</t>
+  </si>
+  <si>
+    <t>김정호</t>
+  </si>
+  <si>
+    <t>010-6535-4957</t>
+  </si>
+  <si>
+    <t>D0213</t>
+  </si>
+  <si>
+    <t>(주)대정이앤씨</t>
+  </si>
+  <si>
+    <t>이수정</t>
+  </si>
+  <si>
+    <t>010-7436-7625</t>
+  </si>
+  <si>
+    <t>D0222</t>
+  </si>
+  <si>
+    <t>우진냉동</t>
+  </si>
+  <si>
+    <t>심재용</t>
+  </si>
+  <si>
+    <t>010-4469-4188</t>
+  </si>
+  <si>
+    <t>D0226</t>
+  </si>
+  <si>
+    <t>명도상사</t>
+  </si>
+  <si>
+    <t>유기현</t>
+  </si>
+  <si>
+    <t>010-5554-6796</t>
+  </si>
+  <si>
+    <t>D0229</t>
+  </si>
+  <si>
+    <t>우진정밀(광명롯데)</t>
+  </si>
+  <si>
+    <t>이호문</t>
+  </si>
+  <si>
+    <t>010-2455-6375</t>
+  </si>
+  <si>
+    <t>D0004</t>
+  </si>
+  <si>
+    <t>가나다냉동</t>
+  </si>
+  <si>
+    <t>김봉길</t>
+  </si>
+  <si>
+    <t>010-8163-7874</t>
+  </si>
+  <si>
+    <t>D0006</t>
+  </si>
+  <si>
+    <t>소리종합주방</t>
+  </si>
+  <si>
+    <t>홍성예</t>
+  </si>
+  <si>
+    <t>010-5990-9956</t>
+  </si>
+  <si>
+    <t>D0013</t>
+  </si>
+  <si>
+    <t>롯데가스보일러(대전서구롯데)</t>
+  </si>
+  <si>
+    <t>김준태</t>
+  </si>
+  <si>
+    <t>010-6139-6330</t>
+  </si>
+  <si>
+    <t>D0034</t>
+  </si>
+  <si>
+    <t>온달가스텍(경남롯데)</t>
+  </si>
+  <si>
+    <t>최규철</t>
+  </si>
+  <si>
+    <t>010-2080-1901</t>
+  </si>
+  <si>
+    <t>D0050</t>
+  </si>
+  <si>
+    <t>안동서비스</t>
+  </si>
+  <si>
+    <t>장형구</t>
+  </si>
+  <si>
+    <t>010-4295-7506</t>
+  </si>
+  <si>
+    <t>D0053</t>
+  </si>
+  <si>
+    <t>더싼유통</t>
+  </si>
+  <si>
+    <t>전윤길</t>
+  </si>
+  <si>
+    <t>010-5399-8514</t>
+  </si>
+  <si>
+    <t>D0063</t>
+  </si>
+  <si>
+    <t>씨.엠.브이시스템</t>
+  </si>
+  <si>
+    <t>박달희</t>
+  </si>
+  <si>
+    <t>010-2687-1085</t>
+  </si>
+  <si>
+    <t>D0065</t>
+  </si>
+  <si>
+    <t>에이스주방냉동백화점</t>
+  </si>
+  <si>
+    <t>정순태</t>
+  </si>
+  <si>
+    <t>010-3181-8411</t>
+  </si>
+  <si>
+    <t>D0076</t>
+  </si>
+  <si>
+    <t>북인천롯데</t>
+  </si>
+  <si>
+    <t>김미순</t>
+  </si>
+  <si>
+    <t>010-1600-8100</t>
+  </si>
+  <si>
+    <t>D0077</t>
+  </si>
+  <si>
+    <t>(주)한일엔지니어링</t>
+  </si>
+  <si>
+    <t>박종필</t>
+  </si>
+  <si>
+    <t>010-7170-7726</t>
+  </si>
+  <si>
+    <t>D0079</t>
+  </si>
+  <si>
+    <t>롯데가스보일러마산내서롯데(서마산롯데)</t>
+  </si>
+  <si>
+    <t>이종길</t>
+  </si>
+  <si>
+    <t>010-8869-4117</t>
+  </si>
+  <si>
+    <t>D0082</t>
+  </si>
+  <si>
+    <t>북부롯데가스보일러(광주서북구롯데)</t>
+  </si>
+  <si>
+    <t>박기영</t>
+  </si>
+  <si>
+    <t>010-3432-6502</t>
+  </si>
+  <si>
+    <t>D0085</t>
+  </si>
+  <si>
+    <t>문진냉기</t>
+  </si>
+  <si>
+    <t>나문진</t>
+  </si>
+  <si>
+    <t>010-4203-7771</t>
+  </si>
+  <si>
+    <t>D0104</t>
+  </si>
+  <si>
+    <t>신부산롯데(서사하롯데)</t>
+  </si>
+  <si>
+    <t>정재곤</t>
+  </si>
+  <si>
+    <t>010-4955-7214</t>
+  </si>
+  <si>
+    <t>D0107</t>
+  </si>
+  <si>
+    <t>성보공업사</t>
+  </si>
+  <si>
+    <t>윤정모</t>
+  </si>
+  <si>
+    <t>010-4179-3267</t>
+  </si>
+  <si>
+    <t>D0123</t>
+  </si>
+  <si>
+    <t>창원롯데</t>
+  </si>
+  <si>
+    <t>박준수</t>
+  </si>
+  <si>
+    <t>010-2323-9747</t>
+  </si>
+  <si>
+    <t>D0131</t>
+  </si>
+  <si>
+    <t>명일엔지니어링(서초강남)</t>
+  </si>
+  <si>
+    <t>서동일</t>
+  </si>
+  <si>
+    <t>010-7905-6748</t>
+  </si>
+  <si>
+    <t>D0136</t>
+  </si>
+  <si>
+    <t>태양열기(김포롯데)</t>
+  </si>
+  <si>
+    <t>김미숙</t>
+  </si>
+  <si>
+    <t>010-8113-4878</t>
+  </si>
+  <si>
+    <t>D0147</t>
+  </si>
+  <si>
+    <t>세원냉동설비수리</t>
+  </si>
+  <si>
+    <t>정명호</t>
+  </si>
+  <si>
+    <t>010-9087-3586</t>
+  </si>
+  <si>
+    <t>D0154</t>
+  </si>
+  <si>
+    <t>신일산냉기(신영자동판매기)</t>
+  </si>
+  <si>
+    <t>황선태</t>
+  </si>
+  <si>
+    <t>010-8346-6797</t>
+  </si>
+  <si>
+    <t>D0155</t>
+  </si>
+  <si>
+    <t>구리롯데</t>
+  </si>
+  <si>
+    <t>박창현</t>
+  </si>
+  <si>
+    <t>010-6569-5005</t>
+  </si>
+  <si>
+    <t>D0164</t>
+  </si>
+  <si>
+    <t>(주)두원아이스뱅크</t>
+  </si>
+  <si>
+    <t>장해은</t>
+  </si>
+  <si>
+    <t>010-7766-9015</t>
+  </si>
+  <si>
+    <t>D0187</t>
+  </si>
+  <si>
+    <t>현대상사</t>
+  </si>
+  <si>
+    <t>이채욱</t>
+  </si>
+  <si>
+    <t>010-1652-2812</t>
+  </si>
+  <si>
+    <t>D0190</t>
+  </si>
+  <si>
+    <t>(주)거창ENG</t>
+  </si>
+  <si>
+    <t>최운학</t>
+  </si>
+  <si>
+    <t>010-8887-5476</t>
+  </si>
+  <si>
+    <t>D0203</t>
+  </si>
+  <si>
+    <t>롯데엔지니어링(금천)</t>
+  </si>
+  <si>
+    <t>정옥균</t>
+  </si>
+  <si>
+    <t>010-4228-3771</t>
+  </si>
+  <si>
+    <t>D0231</t>
+  </si>
+  <si>
+    <t>부경롯데(남구롯데)</t>
+  </si>
+  <si>
+    <t>정진호</t>
+  </si>
+  <si>
+    <t>010-7009-1674</t>
+  </si>
+  <si>
+    <t>D0011</t>
+  </si>
+  <si>
+    <t>롯데가스보일러(아산롯데)</t>
+  </si>
+  <si>
+    <t>차응철</t>
+  </si>
+  <si>
+    <t>010-7254-7778</t>
+  </si>
+  <si>
+    <t>D0024</t>
+  </si>
+  <si>
+    <t>롯데강북서비스</t>
+  </si>
+  <si>
+    <t>박성철</t>
+  </si>
+  <si>
+    <t>010-5657-8531</t>
+  </si>
+  <si>
+    <t>D0026</t>
+  </si>
+  <si>
+    <t>골드자판기</t>
+  </si>
+  <si>
+    <t>이철균</t>
+  </si>
+  <si>
+    <t>010-8533-3844</t>
+  </si>
+  <si>
+    <t>D0032</t>
+  </si>
+  <si>
+    <t>금성경기서비스</t>
+  </si>
+  <si>
+    <t>안영철</t>
+  </si>
+  <si>
+    <t>010-7225-4035</t>
+  </si>
+  <si>
+    <t>D0036</t>
+  </si>
+  <si>
+    <t>천안북부롯데</t>
+  </si>
+  <si>
+    <t>배정호</t>
+  </si>
+  <si>
+    <t>010-8754-3652</t>
+  </si>
+  <si>
+    <t>D0037</t>
+  </si>
+  <si>
+    <t>광진냉동</t>
+  </si>
+  <si>
+    <t>이학수</t>
+  </si>
+  <si>
+    <t>010-3852-9856</t>
+  </si>
+  <si>
+    <t>D0038</t>
+  </si>
+  <si>
+    <t>엘씨밴딩</t>
+  </si>
+  <si>
+    <t>최선영</t>
+  </si>
+  <si>
+    <t>010-9297-1585</t>
+  </si>
+  <si>
+    <t>D0051</t>
+  </si>
+  <si>
+    <t>엘지냉동</t>
+  </si>
+  <si>
+    <t>김송실</t>
+  </si>
+  <si>
+    <t>010-4425-1405</t>
+  </si>
+  <si>
+    <t>D0061</t>
+  </si>
+  <si>
+    <t>롯데가스보일러동부대리점(동부롯데)</t>
+  </si>
+  <si>
+    <t>공미희</t>
+  </si>
+  <si>
+    <t>010-3261-3266</t>
+  </si>
+  <si>
+    <t>D0090</t>
+  </si>
+  <si>
+    <t>(주)성호</t>
+  </si>
+  <si>
+    <t>전용식</t>
+  </si>
+  <si>
+    <t>010-3327-5161</t>
+  </si>
+  <si>
+    <t>D0121</t>
+  </si>
+  <si>
+    <t>(주)성안이엔지(남구롯데)</t>
+  </si>
+  <si>
+    <t>강성국</t>
+  </si>
+  <si>
+    <t>010-6538-2063</t>
+  </si>
+  <si>
+    <t>D0122</t>
+  </si>
+  <si>
+    <t>유성수도상사(동래롯데)</t>
+  </si>
+  <si>
+    <t>김효진</t>
+  </si>
+  <si>
+    <t>010-2949-6785</t>
+  </si>
+  <si>
+    <t>D0135</t>
+  </si>
+  <si>
+    <t>전북기공</t>
+  </si>
+  <si>
+    <t>정원조</t>
+  </si>
+  <si>
+    <t>010-4274-4241</t>
+  </si>
+  <si>
+    <t>D0141</t>
+  </si>
+  <si>
+    <t>원에이티엠(주)</t>
+  </si>
+  <si>
+    <t>서현규</t>
+  </si>
+  <si>
+    <t>010-4988-8377</t>
+  </si>
+  <si>
+    <t>D0142</t>
+  </si>
+  <si>
+    <t>로얄냉동</t>
+  </si>
+  <si>
+    <t>권영숙</t>
+  </si>
+  <si>
+    <t>010-9247-7383</t>
+  </si>
+  <si>
+    <t>D0145</t>
+  </si>
+  <si>
+    <t>플러스상사(광주북부)</t>
+  </si>
+  <si>
+    <t>명종학</t>
+  </si>
+  <si>
+    <t>010-7788-7648</t>
+  </si>
+  <si>
+    <t>D0152</t>
+  </si>
+  <si>
+    <t>성북보일러(성북롯데)</t>
+  </si>
+  <si>
+    <t>심공보</t>
+  </si>
+  <si>
+    <t>010-5921-2404</t>
+  </si>
+  <si>
+    <t>D0172</t>
+  </si>
+  <si>
+    <t>(주)두손템스</t>
+  </si>
+  <si>
+    <t>손응호</t>
+  </si>
+  <si>
+    <t>010-4311-2277</t>
+  </si>
+  <si>
+    <t>D0176</t>
+  </si>
+  <si>
+    <t>청주롯데보일러</t>
+  </si>
+  <si>
+    <t>주장섭</t>
+  </si>
+  <si>
+    <t>010-9522-5229</t>
+  </si>
+  <si>
+    <t>D0178</t>
+  </si>
+  <si>
+    <t>신순천롯데(롯데가스보일러)</t>
+  </si>
+  <si>
+    <t>김미희</t>
+  </si>
+  <si>
+    <t>010-2225-2947</t>
+  </si>
+  <si>
+    <t>D0180</t>
+  </si>
+  <si>
+    <t>하린냉동</t>
+  </si>
+  <si>
+    <t>김종율</t>
+  </si>
+  <si>
+    <t>010-1204-8210</t>
+  </si>
+  <si>
+    <t>D0181</t>
+  </si>
+  <si>
+    <t>소리냉기</t>
+  </si>
+  <si>
+    <t>강성훈</t>
+  </si>
+  <si>
+    <t>010-5286-5213</t>
+  </si>
+  <si>
+    <t>D0192</t>
+  </si>
+  <si>
+    <t>광진엔지니어링</t>
+  </si>
+  <si>
+    <t>신찬철</t>
+  </si>
+  <si>
+    <t>010-3731-8659</t>
+  </si>
+  <si>
+    <t>D0195</t>
+  </si>
+  <si>
+    <t>정일상사(남양주롯데)</t>
+  </si>
+  <si>
+    <t>김상균</t>
+  </si>
+  <si>
+    <t>010-8625-7047</t>
+  </si>
+  <si>
+    <t>D0201</t>
+  </si>
+  <si>
+    <t>새부산롯데(금정롯데)</t>
+  </si>
+  <si>
+    <t>박민갑</t>
+  </si>
+  <si>
+    <t>010-1467-2372</t>
+  </si>
+  <si>
+    <t>D0206</t>
+  </si>
+  <si>
+    <t>센텀냉동</t>
+  </si>
+  <si>
+    <t>이광수</t>
+  </si>
+  <si>
+    <t>010-2383-5785</t>
+  </si>
+  <si>
+    <t>D0209</t>
+  </si>
+  <si>
+    <t>일조유통</t>
+  </si>
+  <si>
+    <t>이진현</t>
+  </si>
+  <si>
+    <t>010-5708-8487</t>
+  </si>
+  <si>
+    <t>D0210</t>
+  </si>
+  <si>
+    <t>대진상사</t>
+  </si>
+  <si>
+    <t>정진원</t>
+  </si>
+  <si>
+    <t>010-7075-8847</t>
+  </si>
+  <si>
+    <t>D0233</t>
+  </si>
+  <si>
+    <t>서비스메카</t>
+  </si>
+  <si>
+    <t>김연기</t>
+  </si>
+  <si>
+    <t>010-2748-3882</t>
+  </si>
+  <si>
+    <t>D0002</t>
+  </si>
+  <si>
+    <t>한성냉열인슈로(주)</t>
+  </si>
+  <si>
+    <t>김광영</t>
+  </si>
+  <si>
+    <t>010-7791-7020</t>
+  </si>
+  <si>
+    <t>D0012</t>
+  </si>
+  <si>
+    <t>롯데엔지니어링(신광주남부)</t>
+  </si>
+  <si>
+    <t>허영만</t>
+  </si>
+  <si>
+    <t>010-6696-4028</t>
+  </si>
+  <si>
+    <t>D0019</t>
+  </si>
+  <si>
+    <t>일화종합설비(서익산롯데)</t>
+  </si>
+  <si>
+    <t>이정범</t>
+  </si>
+  <si>
+    <t>010-3447-4502</t>
+  </si>
+  <si>
+    <t>D0035</t>
+  </si>
+  <si>
+    <t>(주)삼원자판기</t>
+  </si>
+  <si>
+    <t>박철현</t>
+  </si>
+  <si>
+    <t>010-9312-8249</t>
+  </si>
+  <si>
+    <t>D0041</t>
+  </si>
+  <si>
+    <t>벤도피아</t>
+  </si>
+  <si>
+    <t>김태우</t>
+  </si>
+  <si>
+    <t>010-5082-6923</t>
+  </si>
+  <si>
+    <t>D0049</t>
+  </si>
+  <si>
+    <t>제일보일러(울산울주롯데)</t>
+  </si>
+  <si>
+    <t>곽문진</t>
+  </si>
+  <si>
+    <t>010-5266-1451</t>
+  </si>
+  <si>
+    <t>D0056</t>
+  </si>
+  <si>
+    <t>롯데냉동설비(동래)</t>
+  </si>
+  <si>
+    <t>김상옥</t>
+  </si>
+  <si>
+    <t>010-5854-7526</t>
+  </si>
+  <si>
+    <t>D0058</t>
+  </si>
+  <si>
+    <t>진우전자</t>
+  </si>
+  <si>
+    <t>이광재</t>
+  </si>
+  <si>
+    <t>010-7379-2303</t>
+  </si>
+  <si>
+    <t>D0060</t>
+  </si>
+  <si>
+    <t>대신보일러(서구롯데)</t>
+  </si>
+  <si>
+    <t>하익진</t>
+  </si>
+  <si>
+    <t>010-2030-4602</t>
+  </si>
+  <si>
+    <t>D0064</t>
+  </si>
+  <si>
+    <t>태양전기판넬</t>
+  </si>
+  <si>
+    <t>성경희</t>
+  </si>
+  <si>
+    <t>010-8619-5031</t>
+  </si>
+  <si>
+    <t>D0072</t>
+  </si>
+  <si>
+    <t>롯데보일러(성남수정)</t>
+  </si>
+  <si>
+    <t>김옥희</t>
+  </si>
+  <si>
+    <t>010-6350-3516</t>
+  </si>
+  <si>
+    <t>D0084</t>
+  </si>
+  <si>
+    <t>롯데냉열기기(서부산냉기)</t>
+  </si>
+  <si>
+    <t>사공경훈</t>
+  </si>
+  <si>
+    <t>010-5098-6206</t>
+  </si>
+  <si>
+    <t>D0089</t>
+  </si>
+  <si>
+    <t>롯데가스보일러(천안남부롯데)</t>
+  </si>
+  <si>
+    <t>이강섭</t>
+  </si>
+  <si>
+    <t>010-9063-5775</t>
+  </si>
+  <si>
+    <t>D0096</t>
+  </si>
+  <si>
+    <t>롯데가스기기(구로)</t>
+  </si>
+  <si>
+    <t>이기영</t>
+  </si>
+  <si>
+    <t>010-6554-4610</t>
+  </si>
+  <si>
+    <t>D0102</t>
+  </si>
+  <si>
+    <t>구미롯데</t>
+  </si>
+  <si>
+    <t>조준형</t>
+  </si>
+  <si>
+    <t>010-4136-6301</t>
+  </si>
+  <si>
+    <t>D0105</t>
+  </si>
+  <si>
+    <t>대성자판기</t>
+  </si>
+  <si>
+    <t>이기열</t>
+  </si>
+  <si>
+    <t>010-2832-2645</t>
+  </si>
+  <si>
+    <t>D0114</t>
+  </si>
+  <si>
+    <t>경북유통</t>
+  </si>
+  <si>
+    <t>주해룡</t>
+  </si>
+  <si>
+    <t>010-7580-1626</t>
+  </si>
+  <si>
+    <t>D0128</t>
+  </si>
+  <si>
+    <t>덕인유통</t>
+  </si>
+  <si>
+    <t>서동국</t>
+  </si>
+  <si>
+    <t>010-2678-5474</t>
+  </si>
+  <si>
+    <t>D0133</t>
+  </si>
+  <si>
+    <t>계양롯데</t>
+  </si>
+  <si>
+    <t>강동환</t>
+  </si>
+  <si>
+    <t>010-1548-7088</t>
+  </si>
+  <si>
+    <t>D0137</t>
+  </si>
+  <si>
+    <t>삼영냉동산업</t>
+  </si>
+  <si>
+    <t>이혜숙</t>
+  </si>
+  <si>
+    <t>010-9184-1607</t>
+  </si>
+  <si>
+    <t>D0151</t>
+  </si>
+  <si>
+    <t>일도벤딩</t>
+  </si>
+  <si>
+    <t>안영덕</t>
+  </si>
+  <si>
+    <t>010-9172-7431</t>
+  </si>
+  <si>
+    <t>D0156</t>
+  </si>
+  <si>
+    <t>롯데가스보일러(안성롯데)</t>
+  </si>
+  <si>
+    <t>김일태</t>
+  </si>
+  <si>
+    <t>010-4466-9848</t>
+  </si>
+  <si>
+    <t>D0159</t>
+  </si>
+  <si>
+    <t>롯데유통</t>
+  </si>
+  <si>
+    <t>천용성</t>
+  </si>
+  <si>
+    <t>010-2965-5679</t>
+  </si>
+  <si>
+    <t>D0171</t>
+  </si>
+  <si>
+    <t>롯데가스보일러첨단점(광주첨단롯데)</t>
+  </si>
+  <si>
+    <t>진영호</t>
+  </si>
+  <si>
+    <t>010-6512-1596</t>
+  </si>
+  <si>
+    <t>D0208</t>
+  </si>
+  <si>
+    <t>우리상사</t>
+  </si>
+  <si>
+    <t>민성필</t>
+  </si>
+  <si>
+    <t>010-6563-9679</t>
+  </si>
+  <si>
+    <t>D0215</t>
+  </si>
+  <si>
+    <t>신갈롯데</t>
+  </si>
+  <si>
+    <t>권영기</t>
+  </si>
+  <si>
+    <t>010-3302-2734</t>
+  </si>
+  <si>
+    <t>D0216</t>
+  </si>
+  <si>
+    <t>명대상사(보령롯데)</t>
+  </si>
+  <si>
+    <t>이창수</t>
+  </si>
+  <si>
+    <t>010-2987-9700</t>
+  </si>
+  <si>
+    <t>D0217</t>
+  </si>
+  <si>
+    <t>서경냉열</t>
+  </si>
+  <si>
+    <t>김성근</t>
+  </si>
+  <si>
+    <t>010-4513-4692</t>
+  </si>
+  <si>
+    <t>D0235</t>
+  </si>
+  <si>
+    <t>제주냉동</t>
+  </si>
+  <si>
+    <t>강정일</t>
+  </si>
+  <si>
+    <t>010-3503-1534</t>
+  </si>
+  <si>
+    <t>D0236</t>
+  </si>
+  <si>
+    <t>부평롯데</t>
+  </si>
+  <si>
+    <t>허빈</t>
+  </si>
+  <si>
+    <t>010-3671-7849</t>
+  </si>
+  <si>
+    <t>D0008</t>
+  </si>
+  <si>
+    <t>원명보일러총판(의정부)</t>
+  </si>
+  <si>
+    <t>서승권</t>
+  </si>
+  <si>
+    <t>010-1090-4824</t>
+  </si>
+  <si>
+    <t>D0014</t>
+  </si>
+  <si>
+    <t>경인유통</t>
+  </si>
+  <si>
+    <t>임희재</t>
+  </si>
+  <si>
+    <t>010-6962-6130</t>
+  </si>
+  <si>
+    <t>D0018</t>
+  </si>
+  <si>
+    <t>진흥자판기</t>
+  </si>
+  <si>
+    <t>김복자</t>
+  </si>
+  <si>
+    <t>010-4888-5462</t>
+  </si>
+  <si>
+    <t>D0040</t>
+  </si>
+  <si>
+    <t>제일상사(북익산롯데)</t>
+  </si>
+  <si>
+    <t>최세연</t>
+  </si>
+  <si>
+    <t>010-4069-5834</t>
+  </si>
+  <si>
+    <t>D0052</t>
+  </si>
+  <si>
+    <t>복산기기(울산중구롯데)</t>
+  </si>
+  <si>
+    <t>박차환</t>
+  </si>
+  <si>
+    <t>010-3809-1869</t>
+  </si>
+  <si>
+    <t>D0062</t>
+  </si>
+  <si>
+    <t>해태자판기전남지점</t>
+  </si>
+  <si>
+    <t>김진용</t>
+  </si>
+  <si>
+    <t>010-1391-5133</t>
+  </si>
+  <si>
+    <t>D0070</t>
+  </si>
+  <si>
+    <t>서대문롯데</t>
+  </si>
+  <si>
+    <t>임병수</t>
+  </si>
+  <si>
+    <t>010-6092-3049</t>
+  </si>
+  <si>
+    <t>D0086</t>
+  </si>
+  <si>
+    <t>롯데가스보일러서비스센타J(김제롯데)</t>
+  </si>
+  <si>
+    <t>박형준</t>
+  </si>
+  <si>
+    <t>010-7792-4657</t>
+  </si>
+  <si>
+    <t>D0087</t>
+  </si>
+  <si>
+    <t>부성벤더</t>
+  </si>
+  <si>
+    <t>신기식</t>
+  </si>
+  <si>
+    <t>010-3342-8932</t>
+  </si>
+  <si>
+    <t>D0088</t>
+  </si>
+  <si>
+    <t>롯데가스텍(김해롯데)</t>
+  </si>
+  <si>
+    <t>김용권</t>
+  </si>
+  <si>
+    <t>010-9040-7568</t>
+  </si>
+  <si>
+    <t>D0093</t>
+  </si>
+  <si>
+    <t>제일종합상사</t>
+  </si>
+  <si>
+    <t>이경수</t>
+  </si>
+  <si>
+    <t>010-5366-9698</t>
+  </si>
+  <si>
+    <t>D0094</t>
+  </si>
+  <si>
+    <t>롯데냉동공조(포항)</t>
+  </si>
+  <si>
+    <t>이정식</t>
+  </si>
+  <si>
+    <t>010-2152-6314</t>
+  </si>
+  <si>
+    <t>D0095</t>
+  </si>
+  <si>
+    <t>명성에이치앤피</t>
+  </si>
+  <si>
+    <t>신성숙</t>
+  </si>
+  <si>
+    <t>010-9031-3302</t>
+  </si>
+  <si>
+    <t>D0103</t>
+  </si>
+  <si>
+    <t>정우유통</t>
+  </si>
+  <si>
+    <t>이정우</t>
+  </si>
+  <si>
+    <t>010-6738-4180</t>
+  </si>
+  <si>
+    <t>D0106</t>
+  </si>
+  <si>
+    <t>텐플러스 시스템</t>
+  </si>
+  <si>
+    <t>임순희</t>
+  </si>
+  <si>
+    <t>010-5856-5825</t>
+  </si>
+  <si>
+    <t>D0115</t>
+  </si>
+  <si>
+    <t>삼성자판</t>
+  </si>
+  <si>
+    <t>박희대</t>
+  </si>
+  <si>
+    <t>010-1365-3633</t>
+  </si>
+  <si>
+    <t>D0116</t>
+  </si>
+  <si>
+    <t>동양주방인테리어</t>
+  </si>
+  <si>
+    <t>김정곤</t>
+  </si>
+  <si>
+    <t>010-2646-2878</t>
+  </si>
+  <si>
+    <t>D0125</t>
+  </si>
+  <si>
+    <t>씽씽냉동</t>
+  </si>
+  <si>
+    <t>김성표</t>
+  </si>
+  <si>
+    <t>010-7812-2179</t>
+  </si>
+  <si>
+    <t>D0130</t>
+  </si>
+  <si>
+    <t>롯데자판기제일상사</t>
+  </si>
+  <si>
+    <t>김병진</t>
+  </si>
+  <si>
+    <t>010-4588-5774</t>
+  </si>
+  <si>
+    <t>D0139</t>
+  </si>
+  <si>
+    <t>삼학ENG(목포롯데)</t>
+  </si>
+  <si>
+    <t>서병연</t>
+  </si>
+  <si>
+    <t>010-6198-6641</t>
+  </si>
+  <si>
+    <t>D0146</t>
+  </si>
+  <si>
+    <t>롯데자판기</t>
+  </si>
+  <si>
+    <t>김옥연</t>
+  </si>
+  <si>
+    <t>010-2479-2043</t>
+  </si>
+  <si>
+    <t>D0150</t>
+  </si>
+  <si>
+    <t>모우종합설비(완도롯데)</t>
+  </si>
+  <si>
+    <t>윤성남</t>
+  </si>
+  <si>
+    <t>010-5473-8802</t>
+  </si>
+  <si>
+    <t>D0153</t>
+  </si>
+  <si>
+    <t>대성종합설비(당진롯데)</t>
+  </si>
+  <si>
+    <t>박희선</t>
+  </si>
+  <si>
+    <t>010-4171-8019</t>
+  </si>
+  <si>
+    <t>D0158</t>
+  </si>
+  <si>
+    <t>롯데가스기기동구지정점(대전동구롯데)</t>
+  </si>
+  <si>
+    <t>박옥규</t>
+  </si>
+  <si>
+    <t>010-6135-3693</t>
+  </si>
+  <si>
+    <t>D0163</t>
+  </si>
+  <si>
+    <t>구미종합아이스크림</t>
+  </si>
+  <si>
+    <t>조옥래</t>
+  </si>
+  <si>
+    <t>010-5053-6916</t>
+  </si>
+  <si>
+    <t>D0166</t>
+  </si>
+  <si>
+    <t>성운이엔지</t>
+  </si>
+  <si>
+    <t>양회석</t>
+  </si>
+  <si>
+    <t>010-8726-2831</t>
+  </si>
+  <si>
+    <t>D0167</t>
+  </si>
+  <si>
+    <t>둔산롯데</t>
+  </si>
+  <si>
+    <t>박광석</t>
+  </si>
+  <si>
+    <t>010-3055-1937</t>
+  </si>
+  <si>
+    <t>D0168</t>
+  </si>
+  <si>
+    <t>그린에너텍</t>
+  </si>
+  <si>
+    <t>박용서</t>
+  </si>
+  <si>
+    <t>010-7097-2005</t>
+  </si>
+  <si>
+    <t>D0174</t>
+  </si>
+  <si>
+    <t>신영사</t>
+  </si>
+  <si>
+    <t>이주경</t>
+  </si>
+  <si>
+    <t>010-6589-9725</t>
+  </si>
+  <si>
+    <t>D0197</t>
+  </si>
+  <si>
+    <t>영인냉열상사(춘천)</t>
+  </si>
+  <si>
+    <t>정인영</t>
+  </si>
+  <si>
+    <t>010-9082-8159</t>
+  </si>
+  <si>
+    <t>D0202</t>
+  </si>
+  <si>
+    <t>롯데가스보일러(문막)</t>
+  </si>
+  <si>
+    <t>최상수</t>
+  </si>
+  <si>
+    <t>010-2894-1749</t>
+  </si>
+  <si>
+    <t>D0207</t>
+  </si>
+  <si>
+    <t>롯데가스보일러(서산롯데)</t>
+  </si>
+  <si>
+    <t>이경순</t>
+  </si>
+  <si>
+    <t>010-2886-2877</t>
+  </si>
+  <si>
+    <t>D0211</t>
+  </si>
+  <si>
+    <t>협승냉열</t>
+  </si>
+  <si>
+    <t>김미용</t>
+  </si>
+  <si>
+    <t>010-1533-1365</t>
+  </si>
+  <si>
+    <t>D0212</t>
+  </si>
+  <si>
+    <t>롯데보일러(거제롯데(신규)</t>
+  </si>
+  <si>
+    <t>김동언</t>
+  </si>
+  <si>
+    <t>010-8992-5347</t>
+  </si>
+  <si>
+    <t>D0219</t>
+  </si>
+  <si>
+    <t>썬웨이일등보일러(신남원롯데)</t>
+  </si>
+  <si>
+    <t>정경호</t>
+  </si>
+  <si>
+    <t>010-7370-2650</t>
+  </si>
+  <si>
+    <t>D0220</t>
+  </si>
+  <si>
+    <t>벤딩테크(동광주자판)</t>
+  </si>
+  <si>
+    <t>이이형</t>
+  </si>
+  <si>
+    <t>010-6944-8475</t>
+  </si>
+  <si>
+    <t>D0227</t>
+  </si>
+  <si>
+    <t>자판판매(주)</t>
+  </si>
+  <si>
+    <t>이정숙</t>
+  </si>
+  <si>
+    <t>010-1039-5904</t>
+  </si>
+  <si>
+    <t>D0232</t>
+  </si>
+  <si>
+    <t>부산특판</t>
+  </si>
+  <si>
+    <t>박종규</t>
+  </si>
+  <si>
+    <t>010-7665-6051</t>
+  </si>
+  <si>
+    <t>D0010</t>
+  </si>
+  <si>
+    <t>안산냉기</t>
+  </si>
+  <si>
+    <t>배연산</t>
+  </si>
+  <si>
+    <t>010-3235-8020</t>
+  </si>
+  <si>
+    <t>D0021</t>
+  </si>
+  <si>
+    <t>L&amp;R테크</t>
+  </si>
+  <si>
+    <t>조남훈</t>
+  </si>
+  <si>
+    <t>010-5433-9152</t>
+  </si>
+  <si>
+    <t>D0027</t>
+  </si>
+  <si>
+    <t>(주)티브이푸드</t>
+  </si>
+  <si>
+    <t>후지타 토시하루</t>
+  </si>
+  <si>
+    <t>010-5838-7135</t>
+  </si>
+  <si>
+    <t>D0028</t>
+  </si>
+  <si>
+    <t>롯데냉동</t>
+  </si>
+  <si>
+    <t>문현철</t>
+  </si>
+  <si>
+    <t>010-9042-6021</t>
+  </si>
+  <si>
+    <t>D0031</t>
+  </si>
+  <si>
+    <t>목포자판기</t>
+  </si>
+  <si>
+    <t>박병섭</t>
+  </si>
+  <si>
+    <t>010-2204-1803</t>
+  </si>
+  <si>
+    <t>D0039</t>
+  </si>
+  <si>
+    <t>대하롯데가스보일러(광주북구롯데)</t>
+  </si>
+  <si>
+    <t>황정자</t>
+  </si>
+  <si>
+    <t>010-1888-6313</t>
+  </si>
+  <si>
+    <t>D0043</t>
+  </si>
+  <si>
+    <t>화명롯데가스보일러(화명롯데)</t>
+  </si>
+  <si>
+    <t>김영화</t>
+  </si>
+  <si>
+    <t>010-9849-4336</t>
+  </si>
+  <si>
+    <t>D0044</t>
+  </si>
+  <si>
+    <t>LG자판기</t>
+  </si>
+  <si>
+    <t>김용묵</t>
+  </si>
+  <si>
+    <t>010-4148-6753</t>
+  </si>
+  <si>
+    <t>D0045</t>
+  </si>
+  <si>
+    <t>신진엔지니어링(용인롯데)</t>
+  </si>
+  <si>
+    <t>유행수</t>
+  </si>
+  <si>
+    <t>010-8680-8923</t>
+  </si>
+  <si>
+    <t>D0046</t>
+  </si>
+  <si>
+    <t>제일설비(예산롯데)</t>
+  </si>
+  <si>
+    <t>김인환</t>
+  </si>
+  <si>
+    <t>010-2235-1268</t>
+  </si>
+  <si>
+    <t>D0047</t>
+  </si>
+  <si>
+    <t>제주판매(주)</t>
+  </si>
+  <si>
+    <t>이상형</t>
+  </si>
+  <si>
+    <t>010-2031-6044</t>
+  </si>
+  <si>
+    <t>D0057</t>
+  </si>
+  <si>
+    <t>동부자판기</t>
+  </si>
+  <si>
+    <t>윤복길</t>
+  </si>
+  <si>
+    <t>010-4606-6286</t>
+  </si>
+  <si>
+    <t>D0066</t>
+  </si>
+  <si>
+    <t>남포항롯데</t>
+  </si>
+  <si>
+    <t>김원종</t>
+  </si>
+  <si>
+    <t>010-8368-3114</t>
+  </si>
+  <si>
+    <t>D0073</t>
+  </si>
+  <si>
+    <t>롯데사상대리점(사상롯데)</t>
+  </si>
+  <si>
+    <t>박봉희</t>
+  </si>
+  <si>
+    <t>010-5525-6526</t>
+  </si>
+  <si>
+    <t>D0078</t>
+  </si>
+  <si>
+    <t>(주)미래산업</t>
+  </si>
+  <si>
+    <t>조석현</t>
+  </si>
+  <si>
+    <t>010-4879-2489</t>
+  </si>
+  <si>
+    <t>D0098</t>
+  </si>
+  <si>
+    <t>서비스뱅크</t>
+  </si>
+  <si>
+    <t>유택근</t>
+  </si>
+  <si>
+    <t>010-5392-1332</t>
+  </si>
+  <si>
+    <t>D0110</t>
+  </si>
+  <si>
+    <t>삼인ENG(북전주롯데)</t>
+  </si>
+  <si>
+    <t>김성주</t>
+  </si>
+  <si>
+    <t>010-9679-8580</t>
+  </si>
+  <si>
+    <t>D0118</t>
+  </si>
+  <si>
+    <t>대복엔지니어링(서안양롯데)</t>
+  </si>
+  <si>
+    <t>배한근</t>
+  </si>
+  <si>
+    <t>010-7562-8707</t>
+  </si>
+  <si>
+    <t>D0127</t>
+  </si>
+  <si>
+    <t>계현사</t>
+  </si>
+  <si>
+    <t>김민수</t>
+  </si>
+  <si>
+    <t>010-7721-9870</t>
+  </si>
+  <si>
+    <t>D0165</t>
+  </si>
+  <si>
+    <t>원엔지니어링(일산롯데)</t>
+  </si>
+  <si>
+    <t>이명진</t>
+  </si>
+  <si>
+    <t>010-2116-3651</t>
+  </si>
+  <si>
+    <t>D0170</t>
+  </si>
+  <si>
+    <t>광양롯데가스보일러(광양롯데)</t>
+  </si>
+  <si>
+    <t>오균석</t>
+  </si>
+  <si>
+    <t>010-7273-1490</t>
+  </si>
+  <si>
+    <t>D0185</t>
+  </si>
+  <si>
+    <t>중부서비스</t>
+  </si>
+  <si>
+    <t>민원기</t>
+  </si>
+  <si>
+    <t>010-6233-4574</t>
+  </si>
+  <si>
+    <t>D0196</t>
+  </si>
+  <si>
+    <t>여수중앙자판</t>
+  </si>
+  <si>
+    <t>송춘식</t>
+  </si>
+  <si>
+    <t>010-4778-9553</t>
+  </si>
+  <si>
+    <t>D0204</t>
+  </si>
+  <si>
+    <t>아이에스</t>
+  </si>
+  <si>
+    <t>김인수</t>
+  </si>
+  <si>
+    <t>010-1137-9847</t>
+  </si>
+  <si>
+    <t>D0221</t>
+  </si>
+  <si>
+    <t>롯데가스보일러설비(서수원롯데)</t>
+  </si>
+  <si>
+    <t>모인환</t>
+  </si>
+  <si>
+    <t>010-5017-9850</t>
+  </si>
+  <si>
+    <t>D0224</t>
+  </si>
+  <si>
+    <t>가스보일러A/S센타(안산롯데)</t>
+  </si>
+  <si>
+    <t>지기훈</t>
+  </si>
+  <si>
+    <t>010-8140-4482</t>
+  </si>
+  <si>
+    <t>D0228</t>
+  </si>
+  <si>
+    <t>건영기업(신노원롯데)</t>
+  </si>
+  <si>
+    <t>서동권</t>
+  </si>
+  <si>
+    <t>010-9066-7394</t>
+  </si>
+  <si>
+    <t>D0234</t>
+  </si>
+  <si>
+    <t>광주북서구롯데(광주북서구롯데)</t>
+  </si>
+  <si>
+    <t>서진석</t>
+  </si>
+  <si>
+    <t>010-8369-4874</t>
+  </si>
+  <si>
+    <t>D0001</t>
+  </si>
+  <si>
+    <t>신창냉동설비산업</t>
+  </si>
+  <si>
+    <t>황규정</t>
+  </si>
+  <si>
+    <t>010-9484-6839</t>
+  </si>
+  <si>
+    <t>D0007</t>
+  </si>
+  <si>
+    <t>(구)워터365</t>
+  </si>
+  <si>
+    <t>정경모</t>
+  </si>
+  <si>
+    <t>010-8345-4536</t>
+  </si>
+  <si>
+    <t>D0015</t>
+  </si>
+  <si>
+    <t>두영산업</t>
+  </si>
+  <si>
+    <t>김웅겸</t>
+  </si>
+  <si>
+    <t>010-6244-1339</t>
+  </si>
+  <si>
+    <t>D0016</t>
+  </si>
+  <si>
+    <t>세림상사(중랑롯데)</t>
+  </si>
+  <si>
+    <t>장선구</t>
+  </si>
+  <si>
+    <t>010-3495-5838</t>
+  </si>
+  <si>
+    <t>D0030</t>
+  </si>
+  <si>
+    <t>롯데엔지니어링(양천)</t>
+  </si>
+  <si>
+    <t>백성갑</t>
+  </si>
+  <si>
+    <t>010-5186-2401</t>
+  </si>
+  <si>
+    <t>D0042</t>
+  </si>
+  <si>
+    <t>조성엔지니어링(대전중구롯데)</t>
+  </si>
+  <si>
+    <t>정회순</t>
+  </si>
+  <si>
+    <t>010-3844-9788</t>
+  </si>
+  <si>
+    <t>D0048</t>
+  </si>
+  <si>
+    <t>정민냉열</t>
+  </si>
+  <si>
+    <t>오세철</t>
+  </si>
+  <si>
+    <t>010-8898-2314</t>
+  </si>
+  <si>
+    <t>D0055</t>
+  </si>
+  <si>
+    <t>거명ENG롯데보일러</t>
+  </si>
+  <si>
+    <t>서동근</t>
+  </si>
+  <si>
+    <t>010-5799-8917</t>
+  </si>
+  <si>
+    <t>D0059</t>
+  </si>
+  <si>
+    <t>남구 롯데보일러</t>
+  </si>
+  <si>
+    <t>장윤정</t>
+  </si>
+  <si>
+    <t>010-2974-3956</t>
+  </si>
+  <si>
+    <t>D0080</t>
+  </si>
+  <si>
+    <t>삼성자판기서비스지정점(군산자판)</t>
+  </si>
+  <si>
+    <t>탁목곤</t>
+  </si>
+  <si>
+    <t>010-5402-2546</t>
+  </si>
+  <si>
+    <t>D0083</t>
+  </si>
+  <si>
+    <t>롯데벤슨(춘천)</t>
+  </si>
+  <si>
+    <t>박재현</t>
+  </si>
+  <si>
+    <t>010-4990-8697</t>
+  </si>
+  <si>
+    <t>D0092</t>
+  </si>
+  <si>
+    <t>일호서비스</t>
+  </si>
+  <si>
+    <t>김일호</t>
+  </si>
+  <si>
+    <t>010-5921-4266</t>
+  </si>
+  <si>
+    <t>D0109</t>
+  </si>
+  <si>
+    <t>속초롯데</t>
+  </si>
+  <si>
+    <t>박용광</t>
+  </si>
+  <si>
+    <t>010-9166-5021</t>
+  </si>
+  <si>
+    <t>D0129</t>
+  </si>
+  <si>
+    <t>삼성자판서비스</t>
+  </si>
+  <si>
+    <t>이강춘</t>
+  </si>
+  <si>
+    <t>010-3458-3405</t>
+  </si>
+  <si>
+    <t>D0144</t>
+  </si>
+  <si>
+    <t>강릉롯데(롯데가스보일러강릉)</t>
+  </si>
+  <si>
+    <t>이용선</t>
+  </si>
+  <si>
+    <t>010-7780-4554</t>
+  </si>
+  <si>
+    <t>D0148</t>
+  </si>
+  <si>
+    <t>강북서비스</t>
+  </si>
+  <si>
+    <t>탁성철</t>
+  </si>
+  <si>
+    <t>010-3815-3582</t>
+  </si>
+  <si>
+    <t>D0149</t>
+  </si>
+  <si>
+    <t>광성에너지(부천롯데)</t>
+  </si>
+  <si>
+    <t>위용환</t>
+  </si>
+  <si>
+    <t>010-1588-7608</t>
+  </si>
+  <si>
+    <t>D0157</t>
+  </si>
+  <si>
+    <t>태성에너지</t>
+  </si>
+  <si>
+    <t>이태근</t>
+  </si>
+  <si>
+    <t>010-9555-4838</t>
+  </si>
+  <si>
+    <t>D0182</t>
+  </si>
+  <si>
+    <t>모든ENG(서전주롯데)</t>
+  </si>
+  <si>
+    <t>김현준</t>
+  </si>
+  <si>
+    <t>010-7294-7733</t>
+  </si>
+  <si>
+    <t>D0183</t>
+  </si>
+  <si>
+    <t>롯데가스보일러마산(동마산)</t>
+  </si>
+  <si>
+    <t>박재문</t>
+  </si>
+  <si>
+    <t>010-6927-8178</t>
+  </si>
+  <si>
+    <t>D0186</t>
+  </si>
+  <si>
+    <t>기현쇼케이스</t>
+  </si>
+  <si>
+    <t>이재창</t>
+  </si>
+  <si>
+    <t>010-5378-2034</t>
+  </si>
+  <si>
+    <t>D0191</t>
+  </si>
+  <si>
+    <t>원주삼성벤딩</t>
+  </si>
+  <si>
+    <t>최병규</t>
+  </si>
+  <si>
+    <t>010-4390-6916</t>
+  </si>
+  <si>
+    <t>D0194</t>
+  </si>
+  <si>
+    <t>김선옥</t>
+  </si>
+  <si>
+    <t>010-4949-7428</t>
+  </si>
+  <si>
+    <t>D0223</t>
+  </si>
+  <si>
+    <t>자판기서비스</t>
+  </si>
+  <si>
+    <t>권오석</t>
+  </si>
+  <si>
+    <t>010-9834-6580</t>
+  </si>
+  <si>
+    <t>D0003</t>
+  </si>
+  <si>
+    <t>신세계종합주방</t>
+  </si>
+  <si>
+    <t>오동준</t>
+  </si>
+  <si>
+    <t>010-7167-5887</t>
+  </si>
+  <si>
+    <t>D0005</t>
+  </si>
+  <si>
+    <t>두리F&amp;E</t>
+  </si>
+  <si>
+    <t>이준수</t>
+  </si>
+  <si>
+    <t>010-5932-3588</t>
+  </si>
+  <si>
+    <t>D0009</t>
+  </si>
+  <si>
+    <t>롯데가스보일러(수성롯데)</t>
+  </si>
+  <si>
+    <t>호세진</t>
+  </si>
+  <si>
+    <t>010-8236-4872</t>
+  </si>
+  <si>
+    <t>D0022</t>
+  </si>
+  <si>
+    <t>롯데SK가스보일러공주지점</t>
+  </si>
+  <si>
+    <t>송재은</t>
+  </si>
+  <si>
+    <t>010-3354-7768</t>
+  </si>
+  <si>
+    <t>D0025</t>
+  </si>
+  <si>
+    <t>LG상사(정읍냉기)</t>
+  </si>
+  <si>
+    <t>차재호</t>
+  </si>
+  <si>
+    <t>010-9178-4609</t>
+  </si>
+  <si>
+    <t>D0029</t>
+  </si>
+  <si>
+    <t>강서롯데</t>
+  </si>
+  <si>
+    <t>강명원</t>
+  </si>
+  <si>
+    <t>010-8425-2025</t>
+  </si>
+  <si>
+    <t>D0068</t>
+  </si>
+  <si>
+    <t>미래자판기랜드</t>
+  </si>
+  <si>
+    <t>김종원</t>
+  </si>
+  <si>
+    <t>010-9282-2386</t>
+  </si>
+  <si>
+    <t>D0069</t>
+  </si>
+  <si>
+    <t>조은에너지(광진롯데)</t>
+  </si>
+  <si>
+    <t>정석순</t>
+  </si>
+  <si>
+    <t>010-3375-9306</t>
+  </si>
+  <si>
+    <t>D0074</t>
+  </si>
+  <si>
+    <t>월드냉동</t>
+  </si>
+  <si>
+    <t>신경식</t>
+  </si>
+  <si>
+    <t>010-1519-2201</t>
+  </si>
+  <si>
+    <t>D0075</t>
+  </si>
+  <si>
+    <t>롯데가스보일러(달서롯데)</t>
+  </si>
+  <si>
+    <t>권영대</t>
+  </si>
+  <si>
+    <t>010-9426-2643</t>
+  </si>
+  <si>
+    <t>D0081</t>
+  </si>
+  <si>
+    <t>경원자판기</t>
+  </si>
+  <si>
+    <t>백구현</t>
+  </si>
+  <si>
+    <t>010-1597-6460</t>
+  </si>
+  <si>
+    <t>D0100</t>
+  </si>
+  <si>
+    <t>태양자판기서비스</t>
+  </si>
+  <si>
+    <t>허성원</t>
+  </si>
+  <si>
+    <t>010-4114-2171</t>
+  </si>
+  <si>
+    <t>D0108</t>
+  </si>
+  <si>
+    <t>광역롯데</t>
+  </si>
+  <si>
+    <t>전미화</t>
+  </si>
+  <si>
+    <t>010-8277-9728</t>
+  </si>
+  <si>
+    <t>D0117</t>
+  </si>
+  <si>
+    <t>한솔종합상사</t>
+  </si>
+  <si>
+    <t>이홍수</t>
+  </si>
+  <si>
+    <t>010-7636-5728</t>
+  </si>
+  <si>
+    <t>D0124</t>
+  </si>
+  <si>
+    <t>대한에너지(거창롯데)</t>
+  </si>
+  <si>
+    <t>윤석</t>
+  </si>
+  <si>
+    <t>010-2690-2227</t>
+  </si>
+  <si>
+    <t>D0126</t>
+  </si>
+  <si>
+    <t>충주대리점</t>
+  </si>
+  <si>
+    <t>박정용</t>
+  </si>
+  <si>
+    <t>010-2282-5501</t>
+  </si>
+  <si>
+    <t>D0132</t>
+  </si>
+  <si>
+    <t>롯데가스보일러서부대리점(서부롯데)</t>
+  </si>
+  <si>
+    <t>김명숙</t>
+  </si>
+  <si>
+    <t>010-3044-6039</t>
+  </si>
+  <si>
+    <t>D0140</t>
+  </si>
+  <si>
+    <t>전북롯데냉기(전북냉기)</t>
+  </si>
+  <si>
+    <t>공태식</t>
+  </si>
+  <si>
+    <t>010-7681-2468</t>
+  </si>
+  <si>
+    <t>D0160</t>
+  </si>
+  <si>
+    <t>남원냉동주방</t>
+  </si>
+  <si>
+    <t>방명호</t>
+  </si>
+  <si>
+    <t>010-8608-5904</t>
+  </si>
+  <si>
+    <t>D0161</t>
+  </si>
+  <si>
+    <t>리사이클플러스</t>
+  </si>
+  <si>
+    <t>홍성만</t>
+  </si>
+  <si>
+    <t>010-4132-2242</t>
+  </si>
+  <si>
+    <t>D0169</t>
+  </si>
+  <si>
+    <t>도연에너지(광주광산롯데)</t>
+  </si>
+  <si>
+    <t>박진우</t>
+  </si>
+  <si>
+    <t>010-4332-4091</t>
+  </si>
+  <si>
+    <t>D0184</t>
+  </si>
+  <si>
+    <t>하나벤딩(주)</t>
+  </si>
+  <si>
+    <t>박진구</t>
+  </si>
+  <si>
+    <t>010-7359-3024</t>
+  </si>
+  <si>
+    <t>D0193</t>
+  </si>
+  <si>
+    <t>COOL 냉난방시스템</t>
+  </si>
+  <si>
+    <t>권상배</t>
+  </si>
+  <si>
+    <t>010-7094-1063</t>
+  </si>
+  <si>
+    <t>D0200</t>
+  </si>
+  <si>
+    <t>동일가스상사(제주롯데)</t>
+  </si>
+  <si>
+    <t>문유진</t>
+  </si>
+  <si>
+    <t>010-9993-2541</t>
+  </si>
+  <si>
+    <t>D0205</t>
+  </si>
+  <si>
+    <t>거제냉동</t>
+  </si>
+  <si>
+    <t>홍정배</t>
+  </si>
+  <si>
+    <t>010-6136-7629</t>
+  </si>
+  <si>
+    <t>D0214</t>
+  </si>
+  <si>
+    <t>제이엘엔지니어링</t>
+  </si>
+  <si>
+    <t>이종배</t>
+  </si>
+  <si>
+    <t>010-8740-5658</t>
+  </si>
+  <si>
+    <t>D0218</t>
+  </si>
+  <si>
+    <t>진주롯데기공냉동서비스</t>
+  </si>
+  <si>
+    <t>방성원</t>
+  </si>
+  <si>
+    <t>010-3822-6142</t>
+  </si>
+  <si>
+    <t>D0225</t>
+  </si>
+  <si>
+    <t>제일기업(연제롯데)</t>
+  </si>
+  <si>
+    <t>정광휘</t>
+  </si>
+  <si>
+    <t>010-1602-9479</t>
+  </si>
+  <si>
+    <t>D0230</t>
+  </si>
+  <si>
+    <t>유성ENG(북전주롯데)</t>
+  </si>
+  <si>
+    <t>홍성경</t>
+  </si>
+  <si>
+    <t>010-9311-4113</t>
   </si>
 </sst>
 </file>
@@ -972,7 +3802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2854,7 +5684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3764,4 +6594,4740 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F236"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F236"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1">
+        <v>154881</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>88888</v>
+      </c>
+      <c r="F2">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3">
+        <v>224657</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>32897</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>62225</v>
+      </c>
+      <c r="F6">
+        <v>116400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7">
+        <v>24010</v>
+      </c>
+      <c r="F7">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>257800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>309000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10">
+        <v>177310</v>
+      </c>
+      <c r="F10">
+        <v>59500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11">
+        <v>12250</v>
+      </c>
+      <c r="F11">
+        <v>412900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>168099</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13">
+        <v>83646</v>
+      </c>
+      <c r="F13">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14">
+        <v>102660</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>144500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>312200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17">
+        <v>56062</v>
+      </c>
+      <c r="F17">
+        <v>121500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>139500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19">
+        <v>75395</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>576000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21">
+        <v>62880</v>
+      </c>
+      <c r="F21">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22">
+        <v>87500</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23">
+        <v>256476</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24">
+        <v>157242</v>
+      </c>
+      <c r="F24">
+        <v>217500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>258000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27">
+        <v>56140</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28">
+        <v>53300</v>
+      </c>
+      <c r="F28">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30">
+        <v>20400</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31">
+        <v>36401</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32">
+        <v>20601</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33">
+        <v>167808</v>
+      </c>
+      <c r="F33">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34">
+        <v>97362</v>
+      </c>
+      <c r="F34">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35">
+        <v>164116</v>
+      </c>
+      <c r="F35">
+        <v>299000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37">
+        <v>208520</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38">
+        <v>48642</v>
+      </c>
+      <c r="F38">
+        <v>146000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39">
+        <v>27730</v>
+      </c>
+      <c r="F39">
+        <v>209400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40">
+        <v>28950</v>
+      </c>
+      <c r="F40">
+        <v>137000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41">
+        <v>42636</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42">
+        <v>47160</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43">
+        <v>125965</v>
+      </c>
+      <c r="F43">
+        <v>868000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44">
+        <v>181168</v>
+      </c>
+      <c r="F44">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45">
+        <v>596687</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46">
+        <v>410354</v>
+      </c>
+      <c r="F46">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" t="s">
+        <v>267</v>
+      </c>
+      <c r="E47">
+        <v>24500</v>
+      </c>
+      <c r="F47">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49">
+        <v>29857</v>
+      </c>
+      <c r="F49">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" t="s">
+        <v>278</v>
+      </c>
+      <c r="D50" t="s">
+        <v>279</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>280</v>
+      </c>
+      <c r="B51" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51">
+        <v>433386</v>
+      </c>
+      <c r="F51">
+        <v>432500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52" t="s">
+        <v>287</v>
+      </c>
+      <c r="E52">
+        <v>22563</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" t="s">
+        <v>291</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>56700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B54" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54">
+        <v>184464</v>
+      </c>
+      <c r="F54">
+        <v>319500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>296</v>
+      </c>
+      <c r="B55" t="s">
+        <v>297</v>
+      </c>
+      <c r="C55" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" t="s">
+        <v>299</v>
+      </c>
+      <c r="E55">
+        <v>55358</v>
+      </c>
+      <c r="F55">
+        <v>277500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>300</v>
+      </c>
+      <c r="B56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C56" t="s">
+        <v>302</v>
+      </c>
+      <c r="D56" t="s">
+        <v>303</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1756500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" t="s">
+        <v>305</v>
+      </c>
+      <c r="C57" t="s">
+        <v>306</v>
+      </c>
+      <c r="D57" t="s">
+        <v>307</v>
+      </c>
+      <c r="E57">
+        <v>22540</v>
+      </c>
+      <c r="F57">
+        <v>68400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" t="s">
+        <v>309</v>
+      </c>
+      <c r="C58" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" t="s">
+        <v>311</v>
+      </c>
+      <c r="E58">
+        <v>39262</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59" t="s">
+        <v>313</v>
+      </c>
+      <c r="C59" t="s">
+        <v>314</v>
+      </c>
+      <c r="D59" t="s">
+        <v>315</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>264400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>316</v>
+      </c>
+      <c r="B60" t="s">
+        <v>317</v>
+      </c>
+      <c r="C60" t="s">
+        <v>318</v>
+      </c>
+      <c r="D60" t="s">
+        <v>319</v>
+      </c>
+      <c r="E60">
+        <v>85606</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" t="s">
+        <v>321</v>
+      </c>
+      <c r="C61" t="s">
+        <v>322</v>
+      </c>
+      <c r="D61" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61">
+        <v>576104</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>324</v>
+      </c>
+      <c r="B62" t="s">
+        <v>325</v>
+      </c>
+      <c r="C62" t="s">
+        <v>326</v>
+      </c>
+      <c r="D62" t="s">
+        <v>327</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1163200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>328</v>
+      </c>
+      <c r="B63" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" t="s">
+        <v>330</v>
+      </c>
+      <c r="D63" t="s">
+        <v>331</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>141000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>332</v>
+      </c>
+      <c r="B64" t="s">
+        <v>333</v>
+      </c>
+      <c r="C64" t="s">
+        <v>334</v>
+      </c>
+      <c r="D64" t="s">
+        <v>335</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65" t="s">
+        <v>338</v>
+      </c>
+      <c r="D65" t="s">
+        <v>339</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>468000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>340</v>
+      </c>
+      <c r="B66" t="s">
+        <v>341</v>
+      </c>
+      <c r="C66" t="s">
+        <v>342</v>
+      </c>
+      <c r="D66" t="s">
+        <v>343</v>
+      </c>
+      <c r="E66">
+        <v>89600</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>344</v>
+      </c>
+      <c r="B67" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" t="s">
+        <v>346</v>
+      </c>
+      <c r="D67" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>348</v>
+      </c>
+      <c r="B68" t="s">
+        <v>349</v>
+      </c>
+      <c r="C68" t="s">
+        <v>350</v>
+      </c>
+      <c r="D68" t="s">
+        <v>351</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>352</v>
+      </c>
+      <c r="B69" t="s">
+        <v>353</v>
+      </c>
+      <c r="C69" t="s">
+        <v>354</v>
+      </c>
+      <c r="D69" t="s">
+        <v>355</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>356</v>
+      </c>
+      <c r="B70" t="s">
+        <v>357</v>
+      </c>
+      <c r="C70" t="s">
+        <v>358</v>
+      </c>
+      <c r="D70" t="s">
+        <v>359</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>360</v>
+      </c>
+      <c r="B71" t="s">
+        <v>361</v>
+      </c>
+      <c r="C71" t="s">
+        <v>362</v>
+      </c>
+      <c r="D71" t="s">
+        <v>363</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>250500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>364</v>
+      </c>
+      <c r="B72" t="s">
+        <v>365</v>
+      </c>
+      <c r="C72" t="s">
+        <v>366</v>
+      </c>
+      <c r="D72" t="s">
+        <v>367</v>
+      </c>
+      <c r="E72">
+        <v>161426</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>368</v>
+      </c>
+      <c r="B73" t="s">
+        <v>369</v>
+      </c>
+      <c r="C73" t="s">
+        <v>370</v>
+      </c>
+      <c r="D73" t="s">
+        <v>371</v>
+      </c>
+      <c r="E73">
+        <v>687910</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>372</v>
+      </c>
+      <c r="B74" t="s">
+        <v>373</v>
+      </c>
+      <c r="C74" t="s">
+        <v>374</v>
+      </c>
+      <c r="D74" t="s">
+        <v>375</v>
+      </c>
+      <c r="E74">
+        <v>255561</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>376</v>
+      </c>
+      <c r="B75" t="s">
+        <v>377</v>
+      </c>
+      <c r="C75" t="s">
+        <v>378</v>
+      </c>
+      <c r="D75" t="s">
+        <v>379</v>
+      </c>
+      <c r="E75">
+        <v>230765</v>
+      </c>
+      <c r="F75">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>380</v>
+      </c>
+      <c r="B76" t="s">
+        <v>381</v>
+      </c>
+      <c r="C76" t="s">
+        <v>382</v>
+      </c>
+      <c r="D76" t="s">
+        <v>383</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77" t="s">
+        <v>385</v>
+      </c>
+      <c r="C77" t="s">
+        <v>386</v>
+      </c>
+      <c r="D77" t="s">
+        <v>387</v>
+      </c>
+      <c r="E77">
+        <v>258527</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" t="s">
+        <v>389</v>
+      </c>
+      <c r="C78" t="s">
+        <v>390</v>
+      </c>
+      <c r="D78" t="s">
+        <v>391</v>
+      </c>
+      <c r="E78">
+        <v>127236</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>392</v>
+      </c>
+      <c r="B79" t="s">
+        <v>393</v>
+      </c>
+      <c r="C79" t="s">
+        <v>394</v>
+      </c>
+      <c r="D79" t="s">
+        <v>395</v>
+      </c>
+      <c r="E79">
+        <v>31915</v>
+      </c>
+      <c r="F79">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>396</v>
+      </c>
+      <c r="B80" t="s">
+        <v>397</v>
+      </c>
+      <c r="C80" t="s">
+        <v>398</v>
+      </c>
+      <c r="D80" t="s">
+        <v>399</v>
+      </c>
+      <c r="E80">
+        <v>26939</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>400</v>
+      </c>
+      <c r="B81" t="s">
+        <v>401</v>
+      </c>
+      <c r="C81" t="s">
+        <v>402</v>
+      </c>
+      <c r="D81" t="s">
+        <v>403</v>
+      </c>
+      <c r="E81">
+        <v>63128</v>
+      </c>
+      <c r="F81">
+        <v>244500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>404</v>
+      </c>
+      <c r="B82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C82" t="s">
+        <v>406</v>
+      </c>
+      <c r="D82" t="s">
+        <v>407</v>
+      </c>
+      <c r="E82">
+        <v>313477</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>408</v>
+      </c>
+      <c r="B83" t="s">
+        <v>409</v>
+      </c>
+      <c r="C83" t="s">
+        <v>410</v>
+      </c>
+      <c r="D83" t="s">
+        <v>411</v>
+      </c>
+      <c r="E83">
+        <v>175933</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>412</v>
+      </c>
+      <c r="B84" t="s">
+        <v>413</v>
+      </c>
+      <c r="C84" t="s">
+        <v>414</v>
+      </c>
+      <c r="D84" t="s">
+        <v>415</v>
+      </c>
+      <c r="E84">
+        <v>892584</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>416</v>
+      </c>
+      <c r="B85" t="s">
+        <v>417</v>
+      </c>
+      <c r="C85" t="s">
+        <v>418</v>
+      </c>
+      <c r="D85" t="s">
+        <v>419</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>167400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>420</v>
+      </c>
+      <c r="B86" t="s">
+        <v>421</v>
+      </c>
+      <c r="C86" t="s">
+        <v>422</v>
+      </c>
+      <c r="D86" t="s">
+        <v>423</v>
+      </c>
+      <c r="E86">
+        <v>37335</v>
+      </c>
+      <c r="F86">
+        <v>498000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>424</v>
+      </c>
+      <c r="B87" t="s">
+        <v>425</v>
+      </c>
+      <c r="C87" t="s">
+        <v>426</v>
+      </c>
+      <c r="D87" t="s">
+        <v>427</v>
+      </c>
+      <c r="E87">
+        <v>26852</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>428</v>
+      </c>
+      <c r="B88" t="s">
+        <v>429</v>
+      </c>
+      <c r="C88" t="s">
+        <v>430</v>
+      </c>
+      <c r="D88" t="s">
+        <v>431</v>
+      </c>
+      <c r="E88">
+        <v>39235</v>
+      </c>
+      <c r="F88">
+        <v>470500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>432</v>
+      </c>
+      <c r="B89" t="s">
+        <v>433</v>
+      </c>
+      <c r="C89" t="s">
+        <v>434</v>
+      </c>
+      <c r="D89" t="s">
+        <v>435</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>436</v>
+      </c>
+      <c r="B90" t="s">
+        <v>437</v>
+      </c>
+      <c r="C90" t="s">
+        <v>438</v>
+      </c>
+      <c r="D90" t="s">
+        <v>439</v>
+      </c>
+      <c r="E90">
+        <v>525798</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>440</v>
+      </c>
+      <c r="B91" t="s">
+        <v>441</v>
+      </c>
+      <c r="C91" t="s">
+        <v>442</v>
+      </c>
+      <c r="D91" t="s">
+        <v>443</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>53100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>444</v>
+      </c>
+      <c r="B92" t="s">
+        <v>445</v>
+      </c>
+      <c r="C92" t="s">
+        <v>446</v>
+      </c>
+      <c r="D92" t="s">
+        <v>447</v>
+      </c>
+      <c r="E92">
+        <v>44016</v>
+      </c>
+      <c r="F92">
+        <v>294000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>448</v>
+      </c>
+      <c r="B93" t="s">
+        <v>449</v>
+      </c>
+      <c r="C93" t="s">
+        <v>450</v>
+      </c>
+      <c r="D93" t="s">
+        <v>451</v>
+      </c>
+      <c r="E93">
+        <v>60915</v>
+      </c>
+      <c r="F93">
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>452</v>
+      </c>
+      <c r="B94" t="s">
+        <v>453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>454</v>
+      </c>
+      <c r="D94" t="s">
+        <v>455</v>
+      </c>
+      <c r="E94">
+        <v>88500</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>456</v>
+      </c>
+      <c r="B95" t="s">
+        <v>457</v>
+      </c>
+      <c r="C95" t="s">
+        <v>458</v>
+      </c>
+      <c r="D95" t="s">
+        <v>459</v>
+      </c>
+      <c r="E95">
+        <v>557345</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>460</v>
+      </c>
+      <c r="B96" t="s">
+        <v>461</v>
+      </c>
+      <c r="C96" t="s">
+        <v>462</v>
+      </c>
+      <c r="D96" t="s">
+        <v>463</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>433500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>464</v>
+      </c>
+      <c r="B97" t="s">
+        <v>465</v>
+      </c>
+      <c r="C97" t="s">
+        <v>466</v>
+      </c>
+      <c r="D97" t="s">
+        <v>467</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>322500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>468</v>
+      </c>
+      <c r="B98" t="s">
+        <v>469</v>
+      </c>
+      <c r="C98" t="s">
+        <v>470</v>
+      </c>
+      <c r="D98" t="s">
+        <v>471</v>
+      </c>
+      <c r="E98">
+        <v>115640</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>472</v>
+      </c>
+      <c r="B99" t="s">
+        <v>473</v>
+      </c>
+      <c r="C99" t="s">
+        <v>474</v>
+      </c>
+      <c r="D99" t="s">
+        <v>475</v>
+      </c>
+      <c r="E99">
+        <v>199179</v>
+      </c>
+      <c r="F99">
+        <v>166200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>476</v>
+      </c>
+      <c r="B100" t="s">
+        <v>477</v>
+      </c>
+      <c r="C100" t="s">
+        <v>478</v>
+      </c>
+      <c r="D100" t="s">
+        <v>479</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>777000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>480</v>
+      </c>
+      <c r="B101" t="s">
+        <v>481</v>
+      </c>
+      <c r="C101" t="s">
+        <v>482</v>
+      </c>
+      <c r="D101" t="s">
+        <v>483</v>
+      </c>
+      <c r="E101">
+        <v>149234</v>
+      </c>
+      <c r="F101">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>484</v>
+      </c>
+      <c r="B102" t="s">
+        <v>485</v>
+      </c>
+      <c r="C102" t="s">
+        <v>486</v>
+      </c>
+      <c r="D102" t="s">
+        <v>487</v>
+      </c>
+      <c r="E102">
+        <v>27742</v>
+      </c>
+      <c r="F102">
+        <v>291000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>488</v>
+      </c>
+      <c r="B103" t="s">
+        <v>489</v>
+      </c>
+      <c r="C103" t="s">
+        <v>490</v>
+      </c>
+      <c r="D103" t="s">
+        <v>491</v>
+      </c>
+      <c r="E103">
+        <v>41052</v>
+      </c>
+      <c r="F103">
+        <v>281500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>492</v>
+      </c>
+      <c r="B104" t="s">
+        <v>493</v>
+      </c>
+      <c r="C104" t="s">
+        <v>494</v>
+      </c>
+      <c r="D104" t="s">
+        <v>495</v>
+      </c>
+      <c r="E104">
+        <v>35612</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>496</v>
+      </c>
+      <c r="B105" t="s">
+        <v>497</v>
+      </c>
+      <c r="C105" t="s">
+        <v>498</v>
+      </c>
+      <c r="D105" t="s">
+        <v>499</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>655500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>500</v>
+      </c>
+      <c r="B106" t="s">
+        <v>501</v>
+      </c>
+      <c r="C106" t="s">
+        <v>502</v>
+      </c>
+      <c r="D106" t="s">
+        <v>503</v>
+      </c>
+      <c r="E106">
+        <v>238815</v>
+      </c>
+      <c r="F106">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>504</v>
+      </c>
+      <c r="B107" t="s">
+        <v>505</v>
+      </c>
+      <c r="C107" t="s">
+        <v>506</v>
+      </c>
+      <c r="D107" t="s">
+        <v>507</v>
+      </c>
+      <c r="E107">
+        <v>41244</v>
+      </c>
+      <c r="F107">
+        <v>260400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>508</v>
+      </c>
+      <c r="B108" t="s">
+        <v>509</v>
+      </c>
+      <c r="C108" t="s">
+        <v>510</v>
+      </c>
+      <c r="D108" t="s">
+        <v>511</v>
+      </c>
+      <c r="E108">
+        <v>44190</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>512</v>
+      </c>
+      <c r="B109" t="s">
+        <v>513</v>
+      </c>
+      <c r="C109" t="s">
+        <v>514</v>
+      </c>
+      <c r="D109" t="s">
+        <v>515</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>516</v>
+      </c>
+      <c r="B110" t="s">
+        <v>517</v>
+      </c>
+      <c r="C110" t="s">
+        <v>518</v>
+      </c>
+      <c r="D110" t="s">
+        <v>519</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>520</v>
+      </c>
+      <c r="B111" t="s">
+        <v>521</v>
+      </c>
+      <c r="C111" t="s">
+        <v>522</v>
+      </c>
+      <c r="D111" t="s">
+        <v>523</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>221000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>524</v>
+      </c>
+      <c r="B112" t="s">
+        <v>525</v>
+      </c>
+      <c r="C112" t="s">
+        <v>526</v>
+      </c>
+      <c r="D112" t="s">
+        <v>527</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>528</v>
+      </c>
+      <c r="B113" t="s">
+        <v>529</v>
+      </c>
+      <c r="C113" t="s">
+        <v>530</v>
+      </c>
+      <c r="D113" t="s">
+        <v>531</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>532</v>
+      </c>
+      <c r="B114" t="s">
+        <v>533</v>
+      </c>
+      <c r="C114" t="s">
+        <v>534</v>
+      </c>
+      <c r="D114" t="s">
+        <v>535</v>
+      </c>
+      <c r="E114">
+        <v>188500</v>
+      </c>
+      <c r="F114">
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>536</v>
+      </c>
+      <c r="B115" t="s">
+        <v>537</v>
+      </c>
+      <c r="C115" t="s">
+        <v>538</v>
+      </c>
+      <c r="D115" t="s">
+        <v>539</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>540</v>
+      </c>
+      <c r="B116" t="s">
+        <v>541</v>
+      </c>
+      <c r="C116" t="s">
+        <v>542</v>
+      </c>
+      <c r="D116" t="s">
+        <v>543</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>66500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>544</v>
+      </c>
+      <c r="B117" t="s">
+        <v>545</v>
+      </c>
+      <c r="C117" t="s">
+        <v>546</v>
+      </c>
+      <c r="D117" t="s">
+        <v>547</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>548</v>
+      </c>
+      <c r="B118" t="s">
+        <v>549</v>
+      </c>
+      <c r="C118" t="s">
+        <v>550</v>
+      </c>
+      <c r="D118" t="s">
+        <v>551</v>
+      </c>
+      <c r="E118">
+        <v>210147</v>
+      </c>
+      <c r="F118">
+        <v>439000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>552</v>
+      </c>
+      <c r="B119" t="s">
+        <v>553</v>
+      </c>
+      <c r="C119" t="s">
+        <v>554</v>
+      </c>
+      <c r="D119" t="s">
+        <v>555</v>
+      </c>
+      <c r="E119">
+        <v>98040</v>
+      </c>
+      <c r="F119">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>556</v>
+      </c>
+      <c r="B120" t="s">
+        <v>557</v>
+      </c>
+      <c r="C120" t="s">
+        <v>558</v>
+      </c>
+      <c r="D120" t="s">
+        <v>559</v>
+      </c>
+      <c r="E120">
+        <v>36025</v>
+      </c>
+      <c r="F120">
+        <v>91500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>560</v>
+      </c>
+      <c r="B121" t="s">
+        <v>561</v>
+      </c>
+      <c r="C121" t="s">
+        <v>562</v>
+      </c>
+      <c r="D121" t="s">
+        <v>563</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>219000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>564</v>
+      </c>
+      <c r="B122" t="s">
+        <v>565</v>
+      </c>
+      <c r="C122" t="s">
+        <v>566</v>
+      </c>
+      <c r="D122" t="s">
+        <v>567</v>
+      </c>
+      <c r="E122">
+        <v>28770</v>
+      </c>
+      <c r="F122">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>568</v>
+      </c>
+      <c r="B123" t="s">
+        <v>569</v>
+      </c>
+      <c r="C123" t="s">
+        <v>570</v>
+      </c>
+      <c r="D123" t="s">
+        <v>571</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>572</v>
+      </c>
+      <c r="B124" t="s">
+        <v>573</v>
+      </c>
+      <c r="C124" t="s">
+        <v>574</v>
+      </c>
+      <c r="D124" t="s">
+        <v>575</v>
+      </c>
+      <c r="E124">
+        <v>30176</v>
+      </c>
+      <c r="F124">
+        <v>408500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>576</v>
+      </c>
+      <c r="B125" t="s">
+        <v>577</v>
+      </c>
+      <c r="C125" t="s">
+        <v>578</v>
+      </c>
+      <c r="D125" t="s">
+        <v>579</v>
+      </c>
+      <c r="E125">
+        <v>22080</v>
+      </c>
+      <c r="F125">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>580</v>
+      </c>
+      <c r="B126" t="s">
+        <v>581</v>
+      </c>
+      <c r="C126" t="s">
+        <v>582</v>
+      </c>
+      <c r="D126" t="s">
+        <v>583</v>
+      </c>
+      <c r="E126">
+        <v>106952</v>
+      </c>
+      <c r="F126">
+        <v>444300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>584</v>
+      </c>
+      <c r="B127" t="s">
+        <v>585</v>
+      </c>
+      <c r="C127" t="s">
+        <v>586</v>
+      </c>
+      <c r="D127" t="s">
+        <v>587</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>67900</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>588</v>
+      </c>
+      <c r="B128" t="s">
+        <v>589</v>
+      </c>
+      <c r="C128" t="s">
+        <v>590</v>
+      </c>
+      <c r="D128" t="s">
+        <v>591</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>37100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>592</v>
+      </c>
+      <c r="B129" t="s">
+        <v>593</v>
+      </c>
+      <c r="C129" t="s">
+        <v>594</v>
+      </c>
+      <c r="D129" t="s">
+        <v>595</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>596</v>
+      </c>
+      <c r="B130" t="s">
+        <v>597</v>
+      </c>
+      <c r="C130" t="s">
+        <v>598</v>
+      </c>
+      <c r="D130" t="s">
+        <v>599</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>600</v>
+      </c>
+      <c r="B131" t="s">
+        <v>601</v>
+      </c>
+      <c r="C131" t="s">
+        <v>602</v>
+      </c>
+      <c r="D131" t="s">
+        <v>603</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>604</v>
+      </c>
+      <c r="B132" t="s">
+        <v>605</v>
+      </c>
+      <c r="C132" t="s">
+        <v>606</v>
+      </c>
+      <c r="D132" t="s">
+        <v>607</v>
+      </c>
+      <c r="E132">
+        <v>141988</v>
+      </c>
+      <c r="F132">
+        <v>333600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>608</v>
+      </c>
+      <c r="B133" t="s">
+        <v>609</v>
+      </c>
+      <c r="C133" t="s">
+        <v>610</v>
+      </c>
+      <c r="D133" t="s">
+        <v>611</v>
+      </c>
+      <c r="E133">
+        <v>493052</v>
+      </c>
+      <c r="F133">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>612</v>
+      </c>
+      <c r="B134" t="s">
+        <v>613</v>
+      </c>
+      <c r="C134" t="s">
+        <v>614</v>
+      </c>
+      <c r="D134" t="s">
+        <v>615</v>
+      </c>
+      <c r="E134">
+        <v>93879</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>616</v>
+      </c>
+      <c r="B135" t="s">
+        <v>617</v>
+      </c>
+      <c r="C135" t="s">
+        <v>618</v>
+      </c>
+      <c r="D135" t="s">
+        <v>619</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>111600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>620</v>
+      </c>
+      <c r="B136" t="s">
+        <v>621</v>
+      </c>
+      <c r="C136" t="s">
+        <v>622</v>
+      </c>
+      <c r="D136" t="s">
+        <v>623</v>
+      </c>
+      <c r="E136">
+        <v>83629</v>
+      </c>
+      <c r="F136">
+        <v>232400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>624</v>
+      </c>
+      <c r="B137" t="s">
+        <v>625</v>
+      </c>
+      <c r="C137" t="s">
+        <v>626</v>
+      </c>
+      <c r="D137" t="s">
+        <v>627</v>
+      </c>
+      <c r="E137">
+        <v>57424</v>
+      </c>
+      <c r="F137">
+        <v>348000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>628</v>
+      </c>
+      <c r="B138" t="s">
+        <v>629</v>
+      </c>
+      <c r="C138" t="s">
+        <v>630</v>
+      </c>
+      <c r="D138" t="s">
+        <v>631</v>
+      </c>
+      <c r="E138">
+        <v>127800</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>632</v>
+      </c>
+      <c r="B139" t="s">
+        <v>633</v>
+      </c>
+      <c r="C139" t="s">
+        <v>634</v>
+      </c>
+      <c r="D139" t="s">
+        <v>635</v>
+      </c>
+      <c r="E139">
+        <v>65661</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>636</v>
+      </c>
+      <c r="B140" t="s">
+        <v>637</v>
+      </c>
+      <c r="C140" t="s">
+        <v>638</v>
+      </c>
+      <c r="D140" t="s">
+        <v>639</v>
+      </c>
+      <c r="E140">
+        <v>43492</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>640</v>
+      </c>
+      <c r="B141" t="s">
+        <v>641</v>
+      </c>
+      <c r="C141" t="s">
+        <v>642</v>
+      </c>
+      <c r="D141" t="s">
+        <v>643</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>644</v>
+      </c>
+      <c r="B142" t="s">
+        <v>645</v>
+      </c>
+      <c r="C142" t="s">
+        <v>646</v>
+      </c>
+      <c r="D142" t="s">
+        <v>647</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>648</v>
+      </c>
+      <c r="B143" t="s">
+        <v>649</v>
+      </c>
+      <c r="C143" t="s">
+        <v>650</v>
+      </c>
+      <c r="D143" t="s">
+        <v>651</v>
+      </c>
+      <c r="E143">
+        <v>36698</v>
+      </c>
+      <c r="F143">
+        <v>173100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>652</v>
+      </c>
+      <c r="B144" t="s">
+        <v>653</v>
+      </c>
+      <c r="C144" t="s">
+        <v>654</v>
+      </c>
+      <c r="D144" t="s">
+        <v>655</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>273700</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>656</v>
+      </c>
+      <c r="B145" t="s">
+        <v>657</v>
+      </c>
+      <c r="C145" t="s">
+        <v>658</v>
+      </c>
+      <c r="D145" t="s">
+        <v>659</v>
+      </c>
+      <c r="E145">
+        <v>173336</v>
+      </c>
+      <c r="F145">
+        <v>353500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>660</v>
+      </c>
+      <c r="B146" t="s">
+        <v>661</v>
+      </c>
+      <c r="C146" t="s">
+        <v>662</v>
+      </c>
+      <c r="D146" t="s">
+        <v>663</v>
+      </c>
+      <c r="E146">
+        <v>21459</v>
+      </c>
+      <c r="F146">
+        <v>85500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>664</v>
+      </c>
+      <c r="B147" t="s">
+        <v>665</v>
+      </c>
+      <c r="C147" t="s">
+        <v>666</v>
+      </c>
+      <c r="D147" t="s">
+        <v>667</v>
+      </c>
+      <c r="E147">
+        <v>152992</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>668</v>
+      </c>
+      <c r="B148" t="s">
+        <v>669</v>
+      </c>
+      <c r="C148" t="s">
+        <v>670</v>
+      </c>
+      <c r="D148" t="s">
+        <v>671</v>
+      </c>
+      <c r="E148">
+        <v>39910</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>672</v>
+      </c>
+      <c r="B149" t="s">
+        <v>673</v>
+      </c>
+      <c r="C149" t="s">
+        <v>674</v>
+      </c>
+      <c r="D149" t="s">
+        <v>675</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>676</v>
+      </c>
+      <c r="B150" t="s">
+        <v>677</v>
+      </c>
+      <c r="C150" t="s">
+        <v>678</v>
+      </c>
+      <c r="D150" t="s">
+        <v>679</v>
+      </c>
+      <c r="E150">
+        <v>115510</v>
+      </c>
+      <c r="F150">
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>680</v>
+      </c>
+      <c r="B151" t="s">
+        <v>681</v>
+      </c>
+      <c r="C151" t="s">
+        <v>682</v>
+      </c>
+      <c r="D151" t="s">
+        <v>683</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>684</v>
+      </c>
+      <c r="B152" t="s">
+        <v>685</v>
+      </c>
+      <c r="C152" t="s">
+        <v>686</v>
+      </c>
+      <c r="D152" t="s">
+        <v>687</v>
+      </c>
+      <c r="E152">
+        <v>120370</v>
+      </c>
+      <c r="F152">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>688</v>
+      </c>
+      <c r="B153" t="s">
+        <v>689</v>
+      </c>
+      <c r="C153" t="s">
+        <v>690</v>
+      </c>
+      <c r="D153" t="s">
+        <v>691</v>
+      </c>
+      <c r="E153">
+        <v>202117</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>692</v>
+      </c>
+      <c r="B154" t="s">
+        <v>693</v>
+      </c>
+      <c r="C154" t="s">
+        <v>694</v>
+      </c>
+      <c r="D154" t="s">
+        <v>695</v>
+      </c>
+      <c r="E154">
+        <v>30942</v>
+      </c>
+      <c r="F154">
+        <v>84500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>696</v>
+      </c>
+      <c r="B155" t="s">
+        <v>697</v>
+      </c>
+      <c r="C155" t="s">
+        <v>698</v>
+      </c>
+      <c r="D155" t="s">
+        <v>699</v>
+      </c>
+      <c r="E155">
+        <v>92274</v>
+      </c>
+      <c r="F155">
+        <v>274000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>700</v>
+      </c>
+      <c r="B156" t="s">
+        <v>701</v>
+      </c>
+      <c r="C156" t="s">
+        <v>702</v>
+      </c>
+      <c r="D156" t="s">
+        <v>703</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>120200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>704</v>
+      </c>
+      <c r="B157" t="s">
+        <v>705</v>
+      </c>
+      <c r="C157" t="s">
+        <v>706</v>
+      </c>
+      <c r="D157" t="s">
+        <v>707</v>
+      </c>
+      <c r="E157">
+        <v>85196</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>708</v>
+      </c>
+      <c r="B158" t="s">
+        <v>709</v>
+      </c>
+      <c r="C158" t="s">
+        <v>710</v>
+      </c>
+      <c r="D158" t="s">
+        <v>711</v>
+      </c>
+      <c r="E158">
+        <v>20064</v>
+      </c>
+      <c r="F158">
+        <v>583600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>712</v>
+      </c>
+      <c r="B159" t="s">
+        <v>713</v>
+      </c>
+      <c r="C159" t="s">
+        <v>714</v>
+      </c>
+      <c r="D159" t="s">
+        <v>715</v>
+      </c>
+      <c r="E159">
+        <v>157172</v>
+      </c>
+      <c r="F159">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>716</v>
+      </c>
+      <c r="B160" t="s">
+        <v>717</v>
+      </c>
+      <c r="C160" t="s">
+        <v>718</v>
+      </c>
+      <c r="D160" t="s">
+        <v>719</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>235200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>720</v>
+      </c>
+      <c r="B161" t="s">
+        <v>721</v>
+      </c>
+      <c r="C161" t="s">
+        <v>722</v>
+      </c>
+      <c r="D161" t="s">
+        <v>723</v>
+      </c>
+      <c r="E161">
+        <v>61407</v>
+      </c>
+      <c r="F161">
+        <v>346700</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>724</v>
+      </c>
+      <c r="B162" t="s">
+        <v>725</v>
+      </c>
+      <c r="C162" t="s">
+        <v>726</v>
+      </c>
+      <c r="D162" t="s">
+        <v>727</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>728</v>
+      </c>
+      <c r="B163" t="s">
+        <v>729</v>
+      </c>
+      <c r="C163" t="s">
+        <v>730</v>
+      </c>
+      <c r="D163" t="s">
+        <v>731</v>
+      </c>
+      <c r="E163">
+        <v>47000</v>
+      </c>
+      <c r="F163">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>732</v>
+      </c>
+      <c r="B164" t="s">
+        <v>733</v>
+      </c>
+      <c r="C164" t="s">
+        <v>734</v>
+      </c>
+      <c r="D164" t="s">
+        <v>735</v>
+      </c>
+      <c r="E164">
+        <v>171288</v>
+      </c>
+      <c r="F164">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>736</v>
+      </c>
+      <c r="B165" t="s">
+        <v>737</v>
+      </c>
+      <c r="C165" t="s">
+        <v>738</v>
+      </c>
+      <c r="D165" t="s">
+        <v>739</v>
+      </c>
+      <c r="E165">
+        <v>291649</v>
+      </c>
+      <c r="F165">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>740</v>
+      </c>
+      <c r="B166" t="s">
+        <v>741</v>
+      </c>
+      <c r="C166" t="s">
+        <v>742</v>
+      </c>
+      <c r="D166" t="s">
+        <v>743</v>
+      </c>
+      <c r="E166">
+        <v>147528</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>744</v>
+      </c>
+      <c r="B167" t="s">
+        <v>745</v>
+      </c>
+      <c r="C167" t="s">
+        <v>746</v>
+      </c>
+      <c r="D167" t="s">
+        <v>747</v>
+      </c>
+      <c r="E167">
+        <v>111452</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>748</v>
+      </c>
+      <c r="B168" t="s">
+        <v>749</v>
+      </c>
+      <c r="C168" t="s">
+        <v>750</v>
+      </c>
+      <c r="D168" t="s">
+        <v>751</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>212000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>752</v>
+      </c>
+      <c r="B169" t="s">
+        <v>753</v>
+      </c>
+      <c r="C169" t="s">
+        <v>754</v>
+      </c>
+      <c r="D169" t="s">
+        <v>755</v>
+      </c>
+      <c r="E169">
+        <v>162720</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>756</v>
+      </c>
+      <c r="B170" t="s">
+        <v>757</v>
+      </c>
+      <c r="C170" t="s">
+        <v>758</v>
+      </c>
+      <c r="D170" t="s">
+        <v>759</v>
+      </c>
+      <c r="E170">
+        <v>324844</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>760</v>
+      </c>
+      <c r="B171" t="s">
+        <v>761</v>
+      </c>
+      <c r="C171" t="s">
+        <v>762</v>
+      </c>
+      <c r="D171" t="s">
+        <v>763</v>
+      </c>
+      <c r="E171">
+        <v>183335</v>
+      </c>
+      <c r="F171">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>764</v>
+      </c>
+      <c r="B172" t="s">
+        <v>765</v>
+      </c>
+      <c r="C172" t="s">
+        <v>766</v>
+      </c>
+      <c r="D172" t="s">
+        <v>767</v>
+      </c>
+      <c r="E172">
+        <v>96334</v>
+      </c>
+      <c r="F172">
+        <v>191200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>768</v>
+      </c>
+      <c r="B173" t="s">
+        <v>769</v>
+      </c>
+      <c r="C173" t="s">
+        <v>770</v>
+      </c>
+      <c r="D173" t="s">
+        <v>771</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>772</v>
+      </c>
+      <c r="B174" t="s">
+        <v>773</v>
+      </c>
+      <c r="C174" t="s">
+        <v>774</v>
+      </c>
+      <c r="D174" t="s">
+        <v>775</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>149400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>776</v>
+      </c>
+      <c r="B175" t="s">
+        <v>777</v>
+      </c>
+      <c r="C175" t="s">
+        <v>778</v>
+      </c>
+      <c r="D175" t="s">
+        <v>779</v>
+      </c>
+      <c r="E175">
+        <v>103807</v>
+      </c>
+      <c r="F175">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>780</v>
+      </c>
+      <c r="B176" t="s">
+        <v>781</v>
+      </c>
+      <c r="C176" t="s">
+        <v>782</v>
+      </c>
+      <c r="D176" t="s">
+        <v>783</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>132500</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>784</v>
+      </c>
+      <c r="B177" t="s">
+        <v>785</v>
+      </c>
+      <c r="C177" t="s">
+        <v>786</v>
+      </c>
+      <c r="D177" t="s">
+        <v>787</v>
+      </c>
+      <c r="E177">
+        <v>175374</v>
+      </c>
+      <c r="F177">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>788</v>
+      </c>
+      <c r="B178" t="s">
+        <v>789</v>
+      </c>
+      <c r="C178" t="s">
+        <v>790</v>
+      </c>
+      <c r="D178" t="s">
+        <v>791</v>
+      </c>
+      <c r="E178">
+        <v>18966</v>
+      </c>
+      <c r="F178">
+        <v>712600</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>792</v>
+      </c>
+      <c r="B179" t="s">
+        <v>793</v>
+      </c>
+      <c r="C179" t="s">
+        <v>794</v>
+      </c>
+      <c r="D179" t="s">
+        <v>795</v>
+      </c>
+      <c r="E179">
+        <v>82040</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>796</v>
+      </c>
+      <c r="B180" t="s">
+        <v>797</v>
+      </c>
+      <c r="C180" t="s">
+        <v>798</v>
+      </c>
+      <c r="D180" t="s">
+        <v>799</v>
+      </c>
+      <c r="E180">
+        <v>48633</v>
+      </c>
+      <c r="F180">
+        <v>83700</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>800</v>
+      </c>
+      <c r="B181" t="s">
+        <v>801</v>
+      </c>
+      <c r="C181" t="s">
+        <v>802</v>
+      </c>
+      <c r="D181" t="s">
+        <v>803</v>
+      </c>
+      <c r="E181">
+        <v>501234</v>
+      </c>
+      <c r="F181">
+        <v>280300</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>804</v>
+      </c>
+      <c r="B182" t="s">
+        <v>805</v>
+      </c>
+      <c r="C182" t="s">
+        <v>806</v>
+      </c>
+      <c r="D182" t="s">
+        <v>807</v>
+      </c>
+      <c r="E182">
+        <v>29430</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>808</v>
+      </c>
+      <c r="B183" t="s">
+        <v>809</v>
+      </c>
+      <c r="C183" t="s">
+        <v>810</v>
+      </c>
+      <c r="D183" t="s">
+        <v>811</v>
+      </c>
+      <c r="E183">
+        <v>47136</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>812</v>
+      </c>
+      <c r="B184" t="s">
+        <v>813</v>
+      </c>
+      <c r="C184" t="s">
+        <v>814</v>
+      </c>
+      <c r="D184" t="s">
+        <v>815</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>365500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>816</v>
+      </c>
+      <c r="B185" t="s">
+        <v>817</v>
+      </c>
+      <c r="C185" t="s">
+        <v>818</v>
+      </c>
+      <c r="D185" t="s">
+        <v>819</v>
+      </c>
+      <c r="E185">
+        <v>61775</v>
+      </c>
+      <c r="F185">
+        <v>348600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>820</v>
+      </c>
+      <c r="B186" t="s">
+        <v>821</v>
+      </c>
+      <c r="C186" t="s">
+        <v>822</v>
+      </c>
+      <c r="D186" t="s">
+        <v>823</v>
+      </c>
+      <c r="E186">
+        <v>58253</v>
+      </c>
+      <c r="F186">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>824</v>
+      </c>
+      <c r="B187" t="s">
+        <v>825</v>
+      </c>
+      <c r="C187" t="s">
+        <v>826</v>
+      </c>
+      <c r="D187" t="s">
+        <v>827</v>
+      </c>
+      <c r="E187">
+        <v>241560</v>
+      </c>
+      <c r="F187">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>828</v>
+      </c>
+      <c r="B188" t="s">
+        <v>829</v>
+      </c>
+      <c r="C188" t="s">
+        <v>830</v>
+      </c>
+      <c r="D188" t="s">
+        <v>831</v>
+      </c>
+      <c r="E188">
+        <v>15912</v>
+      </c>
+      <c r="F188">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>832</v>
+      </c>
+      <c r="B189" t="s">
+        <v>833</v>
+      </c>
+      <c r="C189" t="s">
+        <v>834</v>
+      </c>
+      <c r="D189" t="s">
+        <v>835</v>
+      </c>
+      <c r="E189">
+        <v>80575</v>
+      </c>
+      <c r="F189">
+        <v>75200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>836</v>
+      </c>
+      <c r="B190" t="s">
+        <v>837</v>
+      </c>
+      <c r="C190" t="s">
+        <v>838</v>
+      </c>
+      <c r="D190" t="s">
+        <v>839</v>
+      </c>
+      <c r="E190">
+        <v>288600</v>
+      </c>
+      <c r="F190">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>840</v>
+      </c>
+      <c r="B191" t="s">
+        <v>841</v>
+      </c>
+      <c r="C191" t="s">
+        <v>842</v>
+      </c>
+      <c r="D191" t="s">
+        <v>843</v>
+      </c>
+      <c r="E191">
+        <v>35550</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>844</v>
+      </c>
+      <c r="B192" t="s">
+        <v>845</v>
+      </c>
+      <c r="C192" t="s">
+        <v>846</v>
+      </c>
+      <c r="D192" t="s">
+        <v>847</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>302400</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>848</v>
+      </c>
+      <c r="B193" t="s">
+        <v>849</v>
+      </c>
+      <c r="C193" t="s">
+        <v>850</v>
+      </c>
+      <c r="D193" t="s">
+        <v>851</v>
+      </c>
+      <c r="E193">
+        <v>34278</v>
+      </c>
+      <c r="F193">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>852</v>
+      </c>
+      <c r="B194" t="s">
+        <v>853</v>
+      </c>
+      <c r="C194" t="s">
+        <v>854</v>
+      </c>
+      <c r="D194" t="s">
+        <v>855</v>
+      </c>
+      <c r="E194">
+        <v>174376</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>856</v>
+      </c>
+      <c r="B195" t="s">
+        <v>857</v>
+      </c>
+      <c r="C195" t="s">
+        <v>858</v>
+      </c>
+      <c r="D195" t="s">
+        <v>859</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>105700</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>860</v>
+      </c>
+      <c r="B196" t="s">
+        <v>861</v>
+      </c>
+      <c r="C196" t="s">
+        <v>862</v>
+      </c>
+      <c r="D196" t="s">
+        <v>863</v>
+      </c>
+      <c r="E196">
+        <v>65773</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>864</v>
+      </c>
+      <c r="B197" t="s">
+        <v>865</v>
+      </c>
+      <c r="C197" t="s">
+        <v>866</v>
+      </c>
+      <c r="D197" t="s">
+        <v>867</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>417800</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>868</v>
+      </c>
+      <c r="B198" t="s">
+        <v>869</v>
+      </c>
+      <c r="C198" t="s">
+        <v>870</v>
+      </c>
+      <c r="D198" t="s">
+        <v>871</v>
+      </c>
+      <c r="E198">
+        <v>43699</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>872</v>
+      </c>
+      <c r="B199" t="s">
+        <v>873</v>
+      </c>
+      <c r="C199" t="s">
+        <v>874</v>
+      </c>
+      <c r="D199" t="s">
+        <v>875</v>
+      </c>
+      <c r="E199">
+        <v>89072</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>876</v>
+      </c>
+      <c r="B200" t="s">
+        <v>877</v>
+      </c>
+      <c r="C200" t="s">
+        <v>878</v>
+      </c>
+      <c r="D200" t="s">
+        <v>879</v>
+      </c>
+      <c r="E200">
+        <v>54060</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>880</v>
+      </c>
+      <c r="B201" t="s">
+        <v>881</v>
+      </c>
+      <c r="C201" t="s">
+        <v>882</v>
+      </c>
+      <c r="D201" t="s">
+        <v>883</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>884</v>
+      </c>
+      <c r="B202" t="s">
+        <v>885</v>
+      </c>
+      <c r="C202" t="s">
+        <v>886</v>
+      </c>
+      <c r="D202" t="s">
+        <v>887</v>
+      </c>
+      <c r="E202">
+        <v>117024</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>888</v>
+      </c>
+      <c r="B203" t="s">
+        <v>889</v>
+      </c>
+      <c r="C203" t="s">
+        <v>890</v>
+      </c>
+      <c r="D203" t="s">
+        <v>891</v>
+      </c>
+      <c r="E203">
+        <v>34560</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>892</v>
+      </c>
+      <c r="B204" t="s">
+        <v>893</v>
+      </c>
+      <c r="C204" t="s">
+        <v>894</v>
+      </c>
+      <c r="D204" t="s">
+        <v>895</v>
+      </c>
+      <c r="E204">
+        <v>154896</v>
+      </c>
+      <c r="F204">
+        <v>252500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>896</v>
+      </c>
+      <c r="B205" t="s">
+        <v>897</v>
+      </c>
+      <c r="C205" t="s">
+        <v>898</v>
+      </c>
+      <c r="D205" t="s">
+        <v>899</v>
+      </c>
+      <c r="E205">
+        <v>167010</v>
+      </c>
+      <c r="F205">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>900</v>
+      </c>
+      <c r="B206" t="s">
+        <v>129</v>
+      </c>
+      <c r="C206" t="s">
+        <v>901</v>
+      </c>
+      <c r="D206" t="s">
+        <v>902</v>
+      </c>
+      <c r="E206">
+        <v>88319</v>
+      </c>
+      <c r="F206">
+        <v>602500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>903</v>
+      </c>
+      <c r="B207" t="s">
+        <v>904</v>
+      </c>
+      <c r="C207" t="s">
+        <v>905</v>
+      </c>
+      <c r="D207" t="s">
+        <v>906</v>
+      </c>
+      <c r="E207">
+        <v>41256</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>907</v>
+      </c>
+      <c r="B208" t="s">
+        <v>908</v>
+      </c>
+      <c r="C208" t="s">
+        <v>909</v>
+      </c>
+      <c r="D208" t="s">
+        <v>910</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>911</v>
+      </c>
+      <c r="B209" t="s">
+        <v>912</v>
+      </c>
+      <c r="C209" t="s">
+        <v>913</v>
+      </c>
+      <c r="D209" t="s">
+        <v>914</v>
+      </c>
+      <c r="E209">
+        <v>22420</v>
+      </c>
+      <c r="F209">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>915</v>
+      </c>
+      <c r="B210" t="s">
+        <v>916</v>
+      </c>
+      <c r="C210" t="s">
+        <v>917</v>
+      </c>
+      <c r="D210" t="s">
+        <v>918</v>
+      </c>
+      <c r="E210">
+        <v>34932</v>
+      </c>
+      <c r="F210">
+        <v>439000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>919</v>
+      </c>
+      <c r="B211" t="s">
+        <v>920</v>
+      </c>
+      <c r="C211" t="s">
+        <v>921</v>
+      </c>
+      <c r="D211" t="s">
+        <v>922</v>
+      </c>
+      <c r="E211">
+        <v>182556</v>
+      </c>
+      <c r="F211">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>923</v>
+      </c>
+      <c r="B212" t="s">
+        <v>924</v>
+      </c>
+      <c r="C212" t="s">
+        <v>925</v>
+      </c>
+      <c r="D212" t="s">
+        <v>926</v>
+      </c>
+      <c r="E212">
+        <v>76676</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>927</v>
+      </c>
+      <c r="B213" t="s">
+        <v>928</v>
+      </c>
+      <c r="C213" t="s">
+        <v>929</v>
+      </c>
+      <c r="D213" t="s">
+        <v>930</v>
+      </c>
+      <c r="E213">
+        <v>1213984</v>
+      </c>
+      <c r="F213">
+        <v>187500</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>931</v>
+      </c>
+      <c r="B214" t="s">
+        <v>932</v>
+      </c>
+      <c r="C214" t="s">
+        <v>933</v>
+      </c>
+      <c r="D214" t="s">
+        <v>934</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>1026000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>935</v>
+      </c>
+      <c r="B215" t="s">
+        <v>936</v>
+      </c>
+      <c r="C215" t="s">
+        <v>937</v>
+      </c>
+      <c r="D215" t="s">
+        <v>938</v>
+      </c>
+      <c r="E215">
+        <v>461440</v>
+      </c>
+      <c r="F215">
+        <v>357700</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>939</v>
+      </c>
+      <c r="B216" t="s">
+        <v>940</v>
+      </c>
+      <c r="C216" t="s">
+        <v>941</v>
+      </c>
+      <c r="D216" t="s">
+        <v>942</v>
+      </c>
+      <c r="E216">
+        <v>823394</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>943</v>
+      </c>
+      <c r="B217" t="s">
+        <v>944</v>
+      </c>
+      <c r="C217" t="s">
+        <v>945</v>
+      </c>
+      <c r="D217" t="s">
+        <v>946</v>
+      </c>
+      <c r="E217">
+        <v>22703</v>
+      </c>
+      <c r="F217">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>947</v>
+      </c>
+      <c r="B218" t="s">
+        <v>948</v>
+      </c>
+      <c r="C218" t="s">
+        <v>949</v>
+      </c>
+      <c r="D218" t="s">
+        <v>950</v>
+      </c>
+      <c r="E218">
+        <v>128472</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>951</v>
+      </c>
+      <c r="B219" t="s">
+        <v>952</v>
+      </c>
+      <c r="C219" t="s">
+        <v>953</v>
+      </c>
+      <c r="D219" t="s">
+        <v>954</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>955</v>
+      </c>
+      <c r="B220" t="s">
+        <v>956</v>
+      </c>
+      <c r="C220" t="s">
+        <v>957</v>
+      </c>
+      <c r="D220" t="s">
+        <v>958</v>
+      </c>
+      <c r="E220">
+        <v>130827</v>
+      </c>
+      <c r="F220">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>959</v>
+      </c>
+      <c r="B221" t="s">
+        <v>960</v>
+      </c>
+      <c r="C221" t="s">
+        <v>961</v>
+      </c>
+      <c r="D221" t="s">
+        <v>962</v>
+      </c>
+      <c r="E221">
+        <v>124407</v>
+      </c>
+      <c r="F221">
+        <v>172100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>963</v>
+      </c>
+      <c r="B222" t="s">
+        <v>964</v>
+      </c>
+      <c r="C222" t="s">
+        <v>965</v>
+      </c>
+      <c r="D222" t="s">
+        <v>966</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>967</v>
+      </c>
+      <c r="B223" t="s">
+        <v>968</v>
+      </c>
+      <c r="C223" t="s">
+        <v>969</v>
+      </c>
+      <c r="D223" t="s">
+        <v>970</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>971</v>
+      </c>
+      <c r="B224" t="s">
+        <v>972</v>
+      </c>
+      <c r="C224" t="s">
+        <v>973</v>
+      </c>
+      <c r="D224" t="s">
+        <v>974</v>
+      </c>
+      <c r="E224">
+        <v>41265</v>
+      </c>
+      <c r="F224">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>975</v>
+      </c>
+      <c r="B225" t="s">
+        <v>976</v>
+      </c>
+      <c r="C225" t="s">
+        <v>977</v>
+      </c>
+      <c r="D225" t="s">
+        <v>978</v>
+      </c>
+      <c r="E225">
+        <v>80555</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>979</v>
+      </c>
+      <c r="B226" t="s">
+        <v>980</v>
+      </c>
+      <c r="C226" t="s">
+        <v>981</v>
+      </c>
+      <c r="D226" t="s">
+        <v>982</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>983</v>
+      </c>
+      <c r="B227" t="s">
+        <v>984</v>
+      </c>
+      <c r="C227" t="s">
+        <v>985</v>
+      </c>
+      <c r="D227" t="s">
+        <v>986</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>987</v>
+      </c>
+      <c r="B228" t="s">
+        <v>988</v>
+      </c>
+      <c r="C228" t="s">
+        <v>989</v>
+      </c>
+      <c r="D228" t="s">
+        <v>990</v>
+      </c>
+      <c r="E228">
+        <v>76585</v>
+      </c>
+      <c r="F228">
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>991</v>
+      </c>
+      <c r="B229" t="s">
+        <v>992</v>
+      </c>
+      <c r="C229" t="s">
+        <v>993</v>
+      </c>
+      <c r="D229" t="s">
+        <v>994</v>
+      </c>
+      <c r="E229">
+        <v>53802</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>995</v>
+      </c>
+      <c r="B230" t="s">
+        <v>996</v>
+      </c>
+      <c r="C230" t="s">
+        <v>997</v>
+      </c>
+      <c r="D230" t="s">
+        <v>998</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>999</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E231">
+        <v>29184</v>
+      </c>
+      <c r="F231">
+        <v>145500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E232">
+        <v>86002</v>
+      </c>
+      <c r="F232">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E233">
+        <v>48609</v>
+      </c>
+      <c r="F233">
+        <v>174500</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E234">
+        <v>21805</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E235">
+        <v>187722</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E236">
+        <v>121954</v>
+      </c>
+      <c r="F236">
+        <v>99000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>